--- a/Equipe104.xlsx
+++ b/Equipe104.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24715"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4542FABB-3BB8-480E-924E-FECD8AFF539F}"/>
+  <xr:revisionPtr revIDLastSave="277" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{627E0D21-35C1-489D-97C8-510F5FE9A705}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="184">
   <si>
     <t>Fonct.</t>
   </si>
@@ -139,6 +139,9 @@
 SidebarWightComponent</t>
   </si>
   <si>
+    <t>socketManager</t>
+  </si>
+  <si>
     <t>1.5 Valeur par défaut</t>
   </si>
   <si>
@@ -152,6 +155,12 @@
 TextBox</t>
   </si>
   <si>
+    <t>PlayerLetterHand
+TextBox
+SoloGameInitiatorComponent
+IndexWaitingService</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -163,6 +172,9 @@
   <si>
     <t>Les noms des fonctions sont précis et décrivent les tâches voulues. 
 Le format à utiliser doit être uniforme dans tous les fichiers (camelCase, PascalCase, ...)</t>
+  </si>
+  <si>
+    <t>handContainLetters -&gt; handContainsLetters</t>
   </si>
   <si>
     <t>2.2 Utilité</t>
@@ -283,6 +295,10 @@
 difficultyInCharacters</t>
   </si>
   <si>
+    <t>SetIsGameUnderway
+changeValidity</t>
+  </si>
+  <si>
     <t>5.4 Prédicats</t>
   </si>
   <si>
@@ -293,6 +309,10 @@
     <t>PlaceLettersService verifyTileNotOutOfBound</t>
   </si>
   <si>
+    <t>verifyWordCreated
+verifyTileNotOutOfBounds</t>
+  </si>
+  <si>
     <t>6. Qualité générale</t>
   </si>
   <si>
@@ -407,6 +427,10 @@
   <si>
     <t>test, test quoi?
 small changes sur quoi?</t>
+  </si>
+  <si>
+    <t>testss, important, almost done..
+Il faudrait être plus précis</t>
   </si>
   <si>
     <t>7.3 Branches mortes</t>
@@ -434,6 +458,9 @@
     <t>Le repo git ne contient que les fichiers nécessaires. (pas de dossier node_modules ou coverage. Les fichiers package-lock.json et package.json ne se retrouvent que dans les dossiers client et server)</t>
   </si>
   <si>
+    <t>Dossier controllers et les services qui s'y rattachent sont inutiles</t>
+  </si>
+  <si>
     <t>Total QA sprint</t>
   </si>
   <si>
@@ -519,6 +546,9 @@
     <t>2.2 Clavarder</t>
   </si>
   <si>
+    <t>Pas possible de recevoir les messages d'un autre joueur</t>
+  </si>
+  <si>
     <t>2.3 Validation des mots sur le serveur</t>
   </si>
   <si>
@@ -528,25 +558,47 @@
     <t>2.5 Initialisation d'une nouvelle partie (mode multijoueur)</t>
   </si>
   <si>
+    <t>On ne peut pas choisir le profil du joueur virtuel, Et on n'est pas redirigé vers la page de création de parties</t>
+  </si>
+  <si>
     <t>2.6 Placer des lettres</t>
   </si>
   <si>
+    <t>Le curseur ne disparait pas lorsqu'on selectionne des lettres pour échanger</t>
+  </si>
+  <si>
     <t>2.7 Échanger des lettres</t>
   </si>
   <si>
+    <t>Il faudrait éviter le menu du clic droit de la souris</t>
+  </si>
+  <si>
     <t>2.8 Abandonner une partie</t>
   </si>
   <si>
+    <t>Le gagnant n'est pas toujours le bon après un abandon</t>
+  </si>
+  <si>
     <t>2.9 Manipuler les lettres du chevalet</t>
   </si>
   <si>
     <t>2.10 Commande réserve</t>
   </si>
   <si>
+    <t>La commande doit être accessible seulement si l'affichage de débogage est activé</t>
+  </si>
+  <si>
+    <t>ERROR: 'NG0304: '****i' is not a known element</t>
+  </si>
+  <si>
     <t>Ne build pas</t>
   </si>
   <si>
     <t>Anciennes fonctionnalités brisées</t>
+  </si>
+  <si>
+    <t>Toujours pas de défilement pour la boite de communication
+Une partie solo ne peut pas commencer sans connexion au serveur</t>
   </si>
   <si>
     <t>3.1 Meilleurs scores</t>
@@ -1401,7 +1453,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2016,9 +2068,6 @@
     <xf numFmtId="9" fontId="0" fillId="20" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2067,138 +2116,138 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2249,6 +2298,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2258,7 +2313,7 @@
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="3" builtinId="21"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2655,7 +2710,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="221"/>
+      <c r="A3" s="220"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2665,7 +2720,7 @@
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="211" t="s">
+      <c r="E3" s="210" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -2676,18 +2731,18 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="212" t="s">
+      <c r="A4" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="213">
+      <c r="B4" s="212">
         <f>(Fonctionnalités!E20)</f>
         <v>0.7036</v>
       </c>
-      <c r="C4" s="214">
+      <c r="C4" s="213">
         <f>'Assurance Qualité'!C61</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="D4" s="214">
+      <c r="D4" s="213">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
         <v>0.61216000000000004</v>
       </c>
@@ -2700,42 +2755,42 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="216">
+      <c r="B5" s="215">
         <f>(Fonctionnalités!E36)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="217">
+        <v>0.74019999999999986</v>
+      </c>
+      <c r="C5" s="216">
         <f>'Assurance Qualité'!F61</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="217">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="D5" s="216">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.68711999999999995</v>
       </c>
       <c r="F5" s="13">
         <v>25</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
+        <v>17.177999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="218" t="s">
+      <c r="A6" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="219">
+      <c r="B6" s="218">
         <f>(Fonctionnalités!E53)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="220">
+      <c r="C6" s="219">
         <f>'Assurance Qualité'!I61</f>
         <v>0</v>
       </c>
-      <c r="D6" s="220">
+      <c r="D6" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2772,8 +2827,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2792,85 +2847,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="247"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
-      <c r="J4" s="247"/>
-      <c r="K4" s="247"/>
+      <c r="B4" s="252"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="252"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="19.5" thickBot="1">
       <c r="A5" s="18"/>
-      <c r="B5" s="222"/>
+      <c r="B5" s="221"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="222"/>
+      <c r="E5" s="221"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="222"/>
+      <c r="H5" s="221"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="222"/>
+      <c r="K5" s="221"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="251" t="s">
+      <c r="B6" s="256" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="241" t="s">
+      <c r="C6" s="246" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="243" t="s">
+      <c r="D6" s="247"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="248" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="248" t="s">
+      <c r="G6" s="249"/>
+      <c r="H6" s="250"/>
+      <c r="I6" s="253" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="249"/>
-      <c r="K6" s="250"/>
+      <c r="J6" s="254"/>
+      <c r="K6" s="255"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="237"/>
-      <c r="O6" s="238"/>
-      <c r="P6" s="238"/>
+      <c r="N6" s="242"/>
+      <c r="O6" s="243"/>
+      <c r="P6" s="243"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A7" s="240"/>
-      <c r="B7" s="252"/>
+      <c r="A7" s="245"/>
+      <c r="B7" s="257"/>
       <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
@@ -2900,32 +2955,32 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="221"/>
-      <c r="O7" s="221"/>
-      <c r="P7" s="221"/>
-      <c r="Q7" s="221"/>
+      <c r="N7" s="220"/>
+      <c r="O7" s="220"/>
+      <c r="P7" s="220"/>
+      <c r="Q7" s="220"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A8" s="229" t="s">
+      <c r="A8" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="230"/>
-      <c r="C8" s="225" t="s">
+      <c r="B8" s="262"/>
+      <c r="C8" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="226"/>
+      <c r="D8" s="267"/>
       <c r="E8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="225" t="s">
+      <c r="F8" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="226"/>
+      <c r="G8" s="267"/>
       <c r="H8" s="60"/>
-      <c r="I8" s="225" t="s">
+      <c r="I8" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="226"/>
+      <c r="J8" s="267"/>
       <c r="K8" s="60"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
@@ -2944,7 +2999,9 @@
         <v>3</v>
       </c>
       <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="F9" s="53">
+        <v>1</v>
+      </c>
       <c r="G9" s="48">
         <v>3</v>
       </c>
@@ -2973,7 +3030,9 @@
       <c r="E10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="37">
+        <v>1</v>
+      </c>
       <c r="G10" s="33">
         <v>2</v>
       </c>
@@ -3002,7 +3061,9 @@
       <c r="E11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="37">
+        <v>1</v>
+      </c>
       <c r="G11" s="33">
         <v>3</v>
       </c>
@@ -3031,11 +3092,15 @@
       <c r="E12" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="37">
+        <v>0.75</v>
+      </c>
       <c r="G12" s="33">
         <v>2</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="I12" s="39"/>
       <c r="J12" s="34">
         <v>2</v>
@@ -3046,10 +3111,10 @@
     </row>
     <row r="13" spans="1:17" ht="90">
       <c r="A13" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="35">
         <v>0</v>
@@ -3058,13 +3123,17 @@
         <v>4</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0</v>
+      </c>
       <c r="G13" s="33">
         <v>4</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="I13" s="39"/>
       <c r="J13" s="34">
         <v>4</v>
@@ -3074,10 +3143,10 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:17" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="227" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="228"/>
+      <c r="A14" s="258" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="259"/>
       <c r="C14" s="87">
         <f>SUMPRODUCT(C9:C13,D9:D13)</f>
         <v>4.5</v>
@@ -3089,7 +3158,7 @@
       <c r="E14" s="89"/>
       <c r="F14" s="90">
         <f>SUMPRODUCT(F9:F13,G9:G13)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G14" s="91">
         <f>SUM(G9:G13)</f>
@@ -3109,36 +3178,36 @@
       <c r="M14" s="96"/>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A15" s="234" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="235"/>
-      <c r="C15" s="225" t="s">
+      <c r="A15" s="263" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="264"/>
+      <c r="C15" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="226"/>
+      <c r="D15" s="267"/>
       <c r="E15" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="225" t="s">
+      <c r="F15" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="226"/>
+      <c r="G15" s="267"/>
       <c r="H15" s="60"/>
-      <c r="I15" s="225" t="s">
+      <c r="I15" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="226"/>
+      <c r="J15" s="267"/>
       <c r="K15" s="60"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="45">
       <c r="A16" s="78" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="62">
         <v>1</v>
@@ -3147,11 +3216,15 @@
         <v>2</v>
       </c>
       <c r="E16" s="64"/>
-      <c r="F16" s="68"/>
+      <c r="F16" s="68">
+        <v>1</v>
+      </c>
       <c r="G16" s="69">
         <v>2</v>
       </c>
-      <c r="H16" s="70"/>
+      <c r="H16" s="70" t="s">
+        <v>39</v>
+      </c>
       <c r="I16" s="74"/>
       <c r="J16" s="75">
         <v>2</v>
@@ -3162,10 +3235,10 @@
     </row>
     <row r="17" spans="1:13" ht="30">
       <c r="A17" s="21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C17" s="45">
         <v>1</v>
@@ -3174,7 +3247,9 @@
         <v>3</v>
       </c>
       <c r="E17" s="65"/>
-      <c r="F17" s="71"/>
+      <c r="F17" s="71">
+        <v>1</v>
+      </c>
       <c r="G17" s="42">
         <v>3</v>
       </c>
@@ -3189,10 +3264,10 @@
     </row>
     <row r="18" spans="1:13" ht="45">
       <c r="A18" s="21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" s="45">
         <v>1</v>
@@ -3201,7 +3276,9 @@
         <v>3</v>
       </c>
       <c r="E18" s="65"/>
-      <c r="F18" s="71"/>
+      <c r="F18" s="71">
+        <v>1</v>
+      </c>
       <c r="G18" s="42">
         <v>3</v>
       </c>
@@ -3216,10 +3293,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C19" s="45">
         <v>1</v>
@@ -3228,7 +3305,9 @@
         <v>3</v>
       </c>
       <c r="E19" s="65"/>
-      <c r="F19" s="71"/>
+      <c r="F19" s="71">
+        <v>1</v>
+      </c>
       <c r="G19" s="42">
         <v>3</v>
       </c>
@@ -3243,10 +3322,10 @@
     </row>
     <row r="20" spans="1:13" ht="30">
       <c r="A20" s="21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C20" s="45">
         <v>1</v>
@@ -3255,7 +3334,9 @@
         <v>2</v>
       </c>
       <c r="E20" s="65"/>
-      <c r="F20" s="71"/>
+      <c r="F20" s="71">
+        <v>1</v>
+      </c>
       <c r="G20" s="42">
         <v>2</v>
       </c>
@@ -3269,10 +3350,10 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A21" s="236" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="233"/>
+      <c r="A21" s="265" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="261"/>
       <c r="C21" s="98">
         <f>SUMPRODUCT(C16:C20,D16:D20)</f>
         <v>13</v>
@@ -3284,7 +3365,7 @@
       <c r="E21" s="100"/>
       <c r="F21" s="101">
         <f>SUMPRODUCT(F16:F20,G16:G20)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G21" s="102">
         <f>SUM(G16:G20)</f>
@@ -3304,36 +3385,36 @@
       <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A22" s="229" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="230"/>
-      <c r="C22" s="225" t="s">
+      <c r="A22" s="231" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="262"/>
+      <c r="C22" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="226"/>
+      <c r="D22" s="267"/>
       <c r="E22" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="225" t="s">
+      <c r="F22" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="226"/>
+      <c r="G22" s="267"/>
       <c r="H22" s="60"/>
-      <c r="I22" s="225" t="s">
+      <c r="I22" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="226"/>
+      <c r="J22" s="267"/>
       <c r="K22" s="60"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="60">
       <c r="A23" s="80" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C23" s="84">
         <v>1</v>
@@ -3342,7 +3423,9 @@
         <v>2</v>
       </c>
       <c r="E23" s="86"/>
-      <c r="F23" s="109"/>
+      <c r="F23" s="109">
+        <v>1</v>
+      </c>
       <c r="G23" s="110">
         <v>2</v>
       </c>
@@ -3357,10 +3440,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="82" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C24" s="45">
         <v>1</v>
@@ -3369,7 +3452,9 @@
         <v>1</v>
       </c>
       <c r="E24" s="65"/>
-      <c r="F24" s="71"/>
+      <c r="F24" s="71">
+        <v>1</v>
+      </c>
       <c r="G24" s="42">
         <v>1</v>
       </c>
@@ -3384,10 +3469,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="82" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C25" s="45">
         <v>1</v>
@@ -3396,7 +3481,9 @@
         <v>1</v>
       </c>
       <c r="E25" s="65"/>
-      <c r="F25" s="71"/>
+      <c r="F25" s="71">
+        <v>1</v>
+      </c>
       <c r="G25" s="42">
         <v>1</v>
       </c>
@@ -3410,10 +3497,10 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A26" s="232" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="233"/>
+      <c r="A26" s="260" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="261"/>
       <c r="C26" s="87">
         <f>SUMPRODUCT(C23:C25,D23:D25)</f>
         <v>4</v>
@@ -3425,7 +3512,7 @@
       <c r="E26" s="89"/>
       <c r="F26" s="101">
         <f>SUMPRODUCT(F23:F25,G23:G25)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26" s="102">
         <f>SUM(G23:G25)</f>
@@ -3445,40 +3532,40 @@
       <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A27" s="229" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="230"/>
-      <c r="C27" s="225" t="s">
+      <c r="A27" s="231" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="262"/>
+      <c r="C27" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="226"/>
+      <c r="D27" s="267"/>
       <c r="E27" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="225" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="226"/>
+      <c r="G27" s="267"/>
       <c r="H27" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="225" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="226"/>
+      <c r="J27" s="267"/>
       <c r="K27" s="60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" ht="60">
+    <row r="28" spans="1:13" ht="45">
       <c r="A28" s="120" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B28" s="121" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C28" s="112">
         <v>0.75</v>
@@ -3487,9 +3574,11 @@
         <v>2</v>
       </c>
       <c r="E28" s="113" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="107"/>
+        <v>59</v>
+      </c>
+      <c r="F28" s="107">
+        <v>1</v>
+      </c>
       <c r="G28" s="66">
         <v>2</v>
       </c>
@@ -3504,10 +3593,10 @@
     </row>
     <row r="29" spans="1:13" ht="30">
       <c r="A29" s="56" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C29" s="45">
         <v>0</v>
@@ -3516,13 +3605,17 @@
         <v>2</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="71"/>
+        <v>62</v>
+      </c>
+      <c r="F29" s="71">
+        <v>0</v>
+      </c>
       <c r="G29" s="42">
         <v>2</v>
       </c>
-      <c r="H29" s="43"/>
+      <c r="H29" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="I29" s="77"/>
       <c r="J29" s="44">
         <v>2</v>
@@ -3533,10 +3626,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C30" s="45">
         <v>1</v>
@@ -3545,7 +3638,9 @@
         <v>2</v>
       </c>
       <c r="E30" s="65"/>
-      <c r="F30" s="71"/>
+      <c r="F30" s="71">
+        <v>1</v>
+      </c>
       <c r="G30" s="42">
         <v>2</v>
       </c>
@@ -3558,12 +3653,12 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" ht="165">
+    <row r="31" spans="1:13" ht="135">
       <c r="A31" s="21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C31" s="45">
         <v>0</v>
@@ -3572,13 +3667,17 @@
         <v>3</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="71"/>
+        <v>67</v>
+      </c>
+      <c r="F31" s="71">
+        <v>0</v>
+      </c>
       <c r="G31" s="42">
         <v>3</v>
       </c>
-      <c r="H31" s="43"/>
+      <c r="H31" s="43" t="s">
+        <v>67</v>
+      </c>
       <c r="I31" s="77"/>
       <c r="J31" s="44">
         <v>3</v>
@@ -3588,10 +3687,10 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A32" s="227" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="228"/>
+      <c r="A32" s="258" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="259"/>
       <c r="C32" s="87">
         <f>SUMPRODUCT(C28:C31,D28:D31)</f>
         <v>3.5</v>
@@ -3603,7 +3702,7 @@
       <c r="E32" s="89"/>
       <c r="F32" s="90">
         <f>SUMPRODUCT(F28:F31,G28:G31)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32" s="91">
         <f>SUM(G28:G31)</f>
@@ -3623,21 +3722,21 @@
       <c r="M32" s="96"/>
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A33" s="229" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="231"/>
-      <c r="C33" s="225" t="s">
+      <c r="A33" s="231" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="232"/>
+      <c r="C33" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="226"/>
+      <c r="D33" s="267"/>
       <c r="E33" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="225" t="s">
+      <c r="F33" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="226"/>
+      <c r="G33" s="267"/>
       <c r="H33" s="60"/>
       <c r="I33" s="58" t="s">
         <v>17</v>
@@ -3649,10 +3748,10 @@
     </row>
     <row r="34" spans="1:13" ht="75">
       <c r="A34" s="120" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C34" s="112">
         <v>0</v>
@@ -3661,9 +3760,11 @@
         <v>1</v>
       </c>
       <c r="E34" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="107"/>
+        <v>71</v>
+      </c>
+      <c r="F34" s="107">
+        <v>1</v>
+      </c>
       <c r="G34" s="66">
         <v>1</v>
       </c>
@@ -3678,10 +3779,10 @@
     </row>
     <row r="35" spans="1:13" ht="30">
       <c r="A35" s="56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C35" s="45">
         <v>1</v>
@@ -3690,7 +3791,9 @@
         <v>1</v>
       </c>
       <c r="E35" s="65"/>
-      <c r="F35" s="71"/>
+      <c r="F35" s="71">
+        <v>1</v>
+      </c>
       <c r="G35" s="42">
         <v>1</v>
       </c>
@@ -3705,10 +3808,10 @@
     </row>
     <row r="36" spans="1:13" ht="120">
       <c r="A36" s="21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C36" s="45">
         <v>0</v>
@@ -3717,13 +3820,17 @@
         <v>3</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="71"/>
+        <v>76</v>
+      </c>
+      <c r="F36" s="71">
+        <v>0.5</v>
+      </c>
       <c r="G36" s="42">
         <v>3</v>
       </c>
-      <c r="H36" s="72"/>
+      <c r="H36" s="72" t="s">
+        <v>77</v>
+      </c>
       <c r="I36" s="77"/>
       <c r="J36" s="44">
         <v>3</v>
@@ -3734,10 +3841,10 @@
     </row>
     <row r="37" spans="1:13" ht="45">
       <c r="A37" s="21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" s="45">
         <v>0.75</v>
@@ -3746,13 +3853,17 @@
         <v>3</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="71"/>
+        <v>80</v>
+      </c>
+      <c r="F37" s="71">
+        <v>0.5</v>
+      </c>
       <c r="G37" s="42">
         <v>3</v>
       </c>
-      <c r="H37" s="72"/>
+      <c r="H37" s="72" t="s">
+        <v>81</v>
+      </c>
       <c r="I37" s="77"/>
       <c r="J37" s="44">
         <v>3</v>
@@ -3762,10 +3873,10 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" s="97" customFormat="1" ht="15.75">
-      <c r="A38" s="227" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="228"/>
+      <c r="A38" s="258" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="259"/>
       <c r="C38" s="122">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>3.25</v>
@@ -3777,7 +3888,7 @@
       <c r="E38" s="89"/>
       <c r="F38" s="123">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G38" s="91">
         <f>SUM(G34:G37)</f>
@@ -3797,40 +3908,40 @@
       <c r="M38" s="96"/>
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="229" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="230"/>
-      <c r="C39" s="225" t="s">
+      <c r="A39" s="231" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="262"/>
+      <c r="C39" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="226"/>
+      <c r="D39" s="267"/>
       <c r="E39" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="225" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="226"/>
+      <c r="G39" s="267"/>
       <c r="H39" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="I39" s="225" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="226"/>
+      <c r="J39" s="267"/>
       <c r="K39" s="60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="60">
       <c r="A40" s="78" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C40" s="84">
         <v>0</v>
@@ -3839,13 +3950,17 @@
         <v>1</v>
       </c>
       <c r="E40" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="109"/>
+        <v>85</v>
+      </c>
+      <c r="F40" s="109">
+        <v>0</v>
+      </c>
       <c r="G40" s="110">
         <v>1</v>
       </c>
-      <c r="H40" s="111"/>
+      <c r="H40" s="111" t="s">
+        <v>85</v>
+      </c>
       <c r="I40" s="114"/>
       <c r="J40" s="115">
         <v>1</v>
@@ -3856,10 +3971,10 @@
     </row>
     <row r="41" spans="1:13" ht="30">
       <c r="A41" s="21" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C41" s="45">
         <v>0.25</v>
@@ -3868,13 +3983,17 @@
         <v>4</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="71"/>
+        <v>88</v>
+      </c>
+      <c r="F41" s="71">
+        <v>0.25</v>
+      </c>
       <c r="G41" s="42">
         <v>4</v>
       </c>
-      <c r="H41" s="72"/>
+      <c r="H41" s="72" t="s">
+        <v>88</v>
+      </c>
       <c r="I41" s="77"/>
       <c r="J41" s="44">
         <v>4</v>
@@ -3885,10 +4004,10 @@
     </row>
     <row r="42" spans="1:13" ht="30">
       <c r="A42" s="21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C42" s="45">
         <v>1</v>
@@ -3897,7 +4016,9 @@
         <v>3</v>
       </c>
       <c r="E42" s="65"/>
-      <c r="F42" s="71"/>
+      <c r="F42" s="71">
+        <v>1</v>
+      </c>
       <c r="G42" s="42">
         <v>3</v>
       </c>
@@ -3912,10 +4033,10 @@
     </row>
     <row r="43" spans="1:13" ht="45">
       <c r="A43" s="21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C43" s="45">
         <v>0</v>
@@ -3924,13 +4045,17 @@
         <v>2</v>
       </c>
       <c r="E43" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="71"/>
+        <v>93</v>
+      </c>
+      <c r="F43" s="71">
+        <v>0.5</v>
+      </c>
       <c r="G43" s="42">
         <v>2</v>
       </c>
-      <c r="H43" s="72"/>
+      <c r="H43" s="72" t="s">
+        <v>93</v>
+      </c>
       <c r="I43" s="77"/>
       <c r="J43" s="44">
         <v>2</v>
@@ -3940,10 +4065,10 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="21" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C44" s="35">
         <v>0</v>
@@ -3952,13 +4077,17 @@
         <v>2</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="37"/>
+        <v>96</v>
+      </c>
+      <c r="F44" s="37">
+        <v>0</v>
+      </c>
       <c r="G44" s="33">
         <v>2</v>
       </c>
-      <c r="H44" s="38"/>
+      <c r="H44" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="I44" s="39"/>
       <c r="J44" s="34">
         <v>2</v>
@@ -3969,10 +4098,10 @@
     </row>
     <row r="45" spans="1:13" ht="45">
       <c r="A45" s="21" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C45" s="35">
         <v>0.5</v>
@@ -3981,9 +4110,11 @@
         <v>3</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" s="37"/>
+        <v>99</v>
+      </c>
+      <c r="F45" s="37">
+        <v>1</v>
+      </c>
       <c r="G45" s="33">
         <v>3</v>
       </c>
@@ -3998,10 +4129,10 @@
     </row>
     <row r="46" spans="1:13" ht="45">
       <c r="A46" s="21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C46" s="45">
         <v>0.75</v>
@@ -4010,13 +4141,17 @@
         <v>3</v>
       </c>
       <c r="E46" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="71"/>
+        <v>102</v>
+      </c>
+      <c r="F46" s="71">
+        <v>0.75</v>
+      </c>
       <c r="G46" s="42">
         <v>3</v>
       </c>
-      <c r="H46" s="72"/>
+      <c r="H46" s="72" t="s">
+        <v>102</v>
+      </c>
       <c r="I46" s="77"/>
       <c r="J46" s="44">
         <v>3</v>
@@ -4027,10 +4162,10 @@
     </row>
     <row r="47" spans="1:13" ht="60">
       <c r="A47" s="21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C47" s="45">
         <v>0</v>
@@ -4039,13 +4174,17 @@
         <v>6</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="71"/>
+        <v>105</v>
+      </c>
+      <c r="F47" s="71">
+        <v>0</v>
+      </c>
       <c r="G47" s="42">
         <v>6</v>
       </c>
-      <c r="H47" s="72"/>
+      <c r="H47" s="72" t="s">
+        <v>105</v>
+      </c>
       <c r="I47" s="77"/>
       <c r="J47" s="44">
         <v>6</v>
@@ -4056,10 +4195,10 @@
     </row>
     <row r="48" spans="1:13" ht="45">
       <c r="A48" s="21" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C48" s="45">
         <v>0.5</v>
@@ -4068,9 +4207,11 @@
         <v>8</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="F48" s="71"/>
+        <v>108</v>
+      </c>
+      <c r="F48" s="71">
+        <v>1</v>
+      </c>
       <c r="G48" s="42">
         <v>8</v>
       </c>
@@ -4085,10 +4226,10 @@
     </row>
     <row r="49" spans="1:13" ht="30">
       <c r="A49" s="21" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C49" s="45">
         <v>0</v>
@@ -4097,7 +4238,9 @@
         <v>6</v>
       </c>
       <c r="E49" s="65"/>
-      <c r="F49" s="71"/>
+      <c r="F49" s="71">
+        <v>0</v>
+      </c>
       <c r="G49" s="42">
         <v>6</v>
       </c>
@@ -4112,10 +4255,10 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="21" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C50" s="45">
         <v>0.5</v>
@@ -4124,9 +4267,11 @@
         <v>3</v>
       </c>
       <c r="E50" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="71"/>
+        <v>113</v>
+      </c>
+      <c r="F50" s="71">
+        <v>1</v>
+      </c>
       <c r="G50" s="42">
         <v>3</v>
       </c>
@@ -4140,10 +4285,10 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A51" s="227" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="228"/>
+      <c r="A51" s="258" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="259"/>
       <c r="C51" s="132">
         <f>SUMPRODUCT(C40:C50,D40:D50)</f>
         <v>13.25</v>
@@ -4155,7 +4300,7 @@
       <c r="E51" s="100"/>
       <c r="F51" s="123">
         <f>SUMPRODUCT(F40:F50,G40:G50)</f>
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="G51" s="91">
         <f>SUM(G40:G50)</f>
@@ -4175,36 +4320,36 @@
       <c r="M51" s="96"/>
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A52" s="229" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="231"/>
-      <c r="C52" s="225" t="s">
+      <c r="A52" s="231" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="232"/>
+      <c r="C52" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="226"/>
+      <c r="D52" s="267"/>
       <c r="E52" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="225" t="s">
+      <c r="F52" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="226"/>
+      <c r="G52" s="267"/>
       <c r="H52" s="60"/>
-      <c r="I52" s="225" t="s">
+      <c r="I52" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="226"/>
+      <c r="J52" s="267"/>
       <c r="K52" s="60"/>
       <c r="L52" s="15"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" ht="30">
       <c r="A53" s="78" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C53" s="112">
         <v>1</v>
@@ -4213,7 +4358,9 @@
         <v>2</v>
       </c>
       <c r="E53" s="113"/>
-      <c r="F53" s="109"/>
+      <c r="F53" s="109">
+        <v>1</v>
+      </c>
       <c r="G53" s="110">
         <v>2</v>
       </c>
@@ -4226,12 +4373,12 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" ht="45">
+    <row r="54" spans="1:13" ht="60">
       <c r="A54" s="21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C54" s="45">
         <v>0</v>
@@ -4240,13 +4387,17 @@
         <v>2</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="F54" s="71"/>
+        <v>119</v>
+      </c>
+      <c r="F54" s="71">
+        <v>0</v>
+      </c>
       <c r="G54" s="42">
         <v>2</v>
       </c>
-      <c r="H54" s="72"/>
+      <c r="H54" s="72" t="s">
+        <v>120</v>
+      </c>
       <c r="I54" s="130"/>
       <c r="J54" s="124">
         <v>2</v>
@@ -4257,10 +4408,10 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="56" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C55" s="45">
         <v>0</v>
@@ -4269,7 +4420,9 @@
         <v>1</v>
       </c>
       <c r="E55" s="65"/>
-      <c r="F55" s="71"/>
+      <c r="F55" s="71">
+        <v>0</v>
+      </c>
       <c r="G55" s="42">
         <v>1</v>
       </c>
@@ -4284,10 +4437,10 @@
     </row>
     <row r="56" spans="1:13" ht="135">
       <c r="A56" s="56" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C56" s="45">
         <v>0.5</v>
@@ -4296,13 +4449,17 @@
         <v>4</v>
       </c>
       <c r="E56" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="F56" s="71"/>
+        <v>125</v>
+      </c>
+      <c r="F56" s="71">
+        <v>0.5</v>
+      </c>
       <c r="G56" s="42">
         <v>4</v>
       </c>
-      <c r="H56" s="72"/>
+      <c r="H56" s="72" t="s">
+        <v>125</v>
+      </c>
       <c r="I56" s="130"/>
       <c r="J56" s="124">
         <v>4</v>
@@ -4313,10 +4470,10 @@
     </row>
     <row r="57" spans="1:13" ht="45">
       <c r="A57" s="21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C57" s="45">
         <v>1</v>
@@ -4325,11 +4482,15 @@
         <v>2</v>
       </c>
       <c r="E57" s="65"/>
-      <c r="F57" s="71"/>
+      <c r="F57" s="71">
+        <v>0</v>
+      </c>
       <c r="G57" s="42">
         <v>2</v>
       </c>
-      <c r="H57" s="72"/>
+      <c r="H57" s="72" t="s">
+        <v>128</v>
+      </c>
       <c r="I57" s="130"/>
       <c r="J57" s="124">
         <v>2</v>
@@ -4339,10 +4500,10 @@
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A58" s="227" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="228"/>
+      <c r="A58" s="258" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="259"/>
       <c r="C58" s="98">
         <f>SUMPRODUCT(C53:C57,D53:D57)</f>
         <v>6</v>
@@ -4354,7 +4515,7 @@
       <c r="E58" s="100"/>
       <c r="F58" s="101">
         <f>SUMPRODUCT(F53:F57,G53:G57)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G58" s="102">
         <f>SUM(G53:G57)</f>
@@ -4374,27 +4535,27 @@
       <c r="M58" s="96"/>
     </row>
     <row r="59" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="253" t="s">
+      <c r="A59" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="254"/>
-      <c r="C59" s="254"/>
-      <c r="D59" s="254"/>
-      <c r="E59" s="254"/>
-      <c r="F59" s="254"/>
-      <c r="G59" s="254"/>
-      <c r="H59" s="254"/>
-      <c r="I59" s="254"/>
-      <c r="J59" s="254"/>
-      <c r="K59" s="255"/>
+      <c r="B59" s="225"/>
+      <c r="C59" s="225"/>
+      <c r="D59" s="225"/>
+      <c r="E59" s="225"/>
+      <c r="F59" s="225"/>
+      <c r="G59" s="225"/>
+      <c r="H59" s="225"/>
+      <c r="I59" s="225"/>
+      <c r="J59" s="225"/>
+      <c r="K59" s="226"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="256" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="257"/>
+      <c r="A60" s="227" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="228"/>
       <c r="C60" s="133">
         <f t="shared" ref="C60:J60" si="0">C14+C21+C26+C32+C38+C51+C58</f>
         <v>47.5</v>
@@ -4406,7 +4567,7 @@
       <c r="E60" s="64"/>
       <c r="F60" s="134">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.75</v>
       </c>
       <c r="G60" s="69">
         <f t="shared" si="0"/>
@@ -4426,67 +4587,33 @@
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="258" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="259"/>
-      <c r="C61" s="260">
+      <c r="A61" s="229" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="230"/>
+      <c r="C61" s="233">
         <f>C60/D60</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="D61" s="261"/>
-      <c r="E61" s="262"/>
-      <c r="F61" s="263">
+      <c r="D61" s="234"/>
+      <c r="E61" s="235"/>
+      <c r="F61" s="236">
         <f>F60/G60</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="264"/>
-      <c r="H61" s="265"/>
-      <c r="I61" s="266">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="G61" s="237"/>
+      <c r="H61" s="238"/>
+      <c r="I61" s="239">
         <f>I60/J60</f>
         <v>0</v>
       </c>
-      <c r="J61" s="267"/>
-      <c r="K61" s="268"/>
+      <c r="J61" s="240"/>
+      <c r="K61" s="241"/>
       <c r="L61" s="136"/>
       <c r="M61" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="I22:J22"/>
@@ -4501,6 +4628,40 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14 L21 L26 L32 L38 L51" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -4522,8 +4683,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4537,15 +4698,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="268" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
+      <c r="B2" s="268"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="268"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="139"/>
@@ -4558,7 +4719,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="137" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B4" s="137"/>
       <c r="C4" s="137"/>
@@ -4569,42 +4730,42 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="24" thickBot="1">
-      <c r="A6" s="277" t="s">
+      <c r="A6" s="276" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="278"/>
-      <c r="C6" s="278"/>
-      <c r="D6" s="278"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="279"/>
+      <c r="B6" s="277"/>
+      <c r="C6" s="277"/>
+      <c r="D6" s="277"/>
+      <c r="E6" s="277"/>
+      <c r="F6" s="277"/>
+      <c r="G6" s="278"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="161" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="280"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="280"/>
-      <c r="F7" s="280"/>
-      <c r="G7" s="281"/>
+        <v>132</v>
+      </c>
+      <c r="B7" s="279"/>
+      <c r="C7" s="279"/>
+      <c r="D7" s="279"/>
+      <c r="E7" s="279"/>
+      <c r="F7" s="279"/>
+      <c r="G7" s="280"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="210" t="s">
-        <v>126</v>
+      <c r="A8" s="209" t="s">
+        <v>133</v>
       </c>
       <c r="B8" s="189" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="189" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D8" s="189" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="189" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F8" s="189" t="s">
         <v>17</v>
@@ -4615,7 +4776,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="148" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B9" s="141">
         <v>1</v>
@@ -4631,13 +4792,13 @@
         <v>5</v>
       </c>
       <c r="F9" s="141" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G9" s="149"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="191" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B10" s="192">
         <v>0.94</v>
@@ -4653,13 +4814,13 @@
         <v>4.6999999999999993</v>
       </c>
       <c r="F10" s="192" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G10" s="193"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="148" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B11" s="141">
         <v>0.5</v>
@@ -4675,13 +4836,13 @@
         <v>6.75</v>
       </c>
       <c r="F11" s="141" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G11" s="149"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="191" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B12" s="192">
         <v>0.85</v>
@@ -4697,13 +4858,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="F12" s="192" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G12" s="193"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="148" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B13" s="141">
         <v>0.95</v>
@@ -4722,12 +4883,12 @@
         <v>18</v>
       </c>
       <c r="G13" s="149" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="90">
       <c r="A14" s="148" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B14" s="141">
         <v>0.75</v>
@@ -4745,13 +4906,13 @@
       <c r="F14" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="224" t="s">
-        <v>136</v>
+      <c r="G14" s="223" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="191" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B15" s="192">
         <v>1</v>
@@ -4773,7 +4934,7 @@
     </row>
     <row r="16" spans="1:7" ht="45">
       <c r="A16" s="148" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B16" s="141">
         <v>0.8</v>
@@ -4791,13 +4952,13 @@
       <c r="F16" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="224" t="s">
-        <v>139</v>
+      <c r="G16" s="223" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="191" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B17" s="192">
         <v>1</v>
@@ -4819,7 +4980,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="148" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B18" s="141">
         <v>0.66</v>
@@ -4835,13 +4996,13 @@
         <v>3.96</v>
       </c>
       <c r="F18" s="141" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G18" s="149"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="191" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B19" s="192">
         <v>1</v>
@@ -4863,11 +5024,11 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="171" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="282"/>
-      <c r="C20" s="282"/>
-      <c r="D20" s="223">
+        <v>150</v>
+      </c>
+      <c r="B20" s="281"/>
+      <c r="C20" s="281"/>
+      <c r="D20" s="222">
         <f>SUM(D9:D19)</f>
         <v>100</v>
       </c>
@@ -4880,7 +5041,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="191" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B21" s="194"/>
       <c r="C21" s="194"/>
@@ -4892,12 +5053,12 @@
       </c>
       <c r="F21" s="194"/>
       <c r="G21" s="196" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="150" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B22" s="151"/>
       <c r="C22" s="151"/>
@@ -4909,42 +5070,42 @@
       <c r="G22" s="153"/>
     </row>
     <row r="23" spans="1:7" ht="24" thickBot="1">
-      <c r="A23" s="283" t="s">
+      <c r="A23" s="282" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="284"/>
-      <c r="C23" s="284"/>
-      <c r="D23" s="284"/>
-      <c r="E23" s="284"/>
-      <c r="F23" s="284"/>
-      <c r="G23" s="285"/>
+      <c r="B23" s="283"/>
+      <c r="C23" s="283"/>
+      <c r="D23" s="283"/>
+      <c r="E23" s="283"/>
+      <c r="F23" s="283"/>
+      <c r="G23" s="284"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="160" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="270"/>
-      <c r="C24" s="270"/>
-      <c r="D24" s="270"/>
-      <c r="E24" s="270"/>
-      <c r="F24" s="270"/>
-      <c r="G24" s="271"/>
+        <v>132</v>
+      </c>
+      <c r="B24" s="269"/>
+      <c r="C24" s="269"/>
+      <c r="D24" s="269"/>
+      <c r="E24" s="269"/>
+      <c r="F24" s="269"/>
+      <c r="G24" s="270"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="209" t="s">
-        <v>126</v>
+      <c r="A25" s="208" t="s">
+        <v>133</v>
       </c>
       <c r="B25" s="197" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="197" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D25" s="197" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="197" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F25" s="197" t="s">
         <v>17</v>
@@ -4955,207 +5116,239 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="154" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B26" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="142">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D26" s="142">
         <v>24</v>
       </c>
       <c r="E26" s="142">
         <f>B26*C26*D26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="142"/>
+        <v>18</v>
+      </c>
+      <c r="F26" s="142" t="s">
+        <v>56</v>
+      </c>
       <c r="G26" s="162"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="199" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B27" s="200">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C27" s="200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="200">
         <v>8</v>
       </c>
       <c r="E27" s="200">
         <f t="shared" ref="E27:E35" si="1">B27*C27*D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="200"/>
-      <c r="G27" s="201"/>
+        <v>4</v>
+      </c>
+      <c r="F27" s="200" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="201" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="154" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B28" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="142">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D28" s="142">
         <v>10</v>
       </c>
       <c r="E28" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="142"/>
+        <v>7.5</v>
+      </c>
+      <c r="F28" s="142" t="s">
+        <v>18</v>
+      </c>
       <c r="G28" s="162"/>
     </row>
-    <row r="29" spans="1:7" ht="30">
+    <row r="29" spans="1:7">
       <c r="A29" s="199" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B29" s="200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="200">
         <v>8</v>
       </c>
       <c r="E29" s="200">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="200"/>
+        <v>8</v>
+      </c>
+      <c r="F29" s="200" t="s">
+        <v>56</v>
+      </c>
       <c r="G29" s="201"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="154" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B30" s="142">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="C30" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="142">
         <v>10</v>
       </c>
       <c r="E30" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="142"/>
-      <c r="G30" s="162"/>
-    </row>
-    <row r="31" spans="1:7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F30" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="162" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30">
       <c r="A31" s="199" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B31" s="200">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C31" s="200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="200">
         <v>12</v>
       </c>
       <c r="E31" s="200">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="200"/>
-      <c r="G31" s="201"/>
+        <v>10.8</v>
+      </c>
+      <c r="F31" s="200" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="286" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="154" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B32" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="142">
         <v>10</v>
       </c>
       <c r="E32" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="142"/>
-      <c r="G32" s="162"/>
+        <v>10</v>
+      </c>
+      <c r="F32" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="162" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="199" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B33" s="200">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="C33" s="200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="200">
         <v>4</v>
       </c>
       <c r="E33" s="200">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="200"/>
-      <c r="G33" s="201"/>
+        <v>1.52</v>
+      </c>
+      <c r="F33" s="200" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="201" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="154" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B34" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="142">
         <v>10</v>
       </c>
       <c r="E34" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="142"/>
+        <v>10</v>
+      </c>
+      <c r="F34" s="142" t="s">
+        <v>18</v>
+      </c>
       <c r="G34" s="162"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="154" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B35" s="142">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C35" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="142">
         <v>4</v>
       </c>
       <c r="E35" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="142"/>
-      <c r="G35" s="162"/>
+        <v>2</v>
+      </c>
+      <c r="F35" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="162" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="167" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B36" s="168"/>
       <c r="C36" s="168"/>
@@ -5165,27 +5358,31 @@
       </c>
       <c r="E36" s="169">
         <f>SUM(E26:E35)/D36 + E37*D37 + E38*D38 + E39*D39</f>
-        <v>0</v>
+        <v>0.74019999999999986</v>
       </c>
       <c r="F36" s="169"/>
       <c r="G36" s="170"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="199" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B37" s="202"/>
       <c r="C37" s="202"/>
       <c r="D37" s="203">
         <v>-0.15</v>
       </c>
-      <c r="E37" s="202"/>
+      <c r="E37" s="202">
+        <v>0.1</v>
+      </c>
       <c r="F37" s="202"/>
-      <c r="G37" s="204"/>
+      <c r="G37" s="204" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="154" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B38" s="143"/>
       <c r="C38" s="143"/>
@@ -5196,56 +5393,60 @@
       <c r="F38" s="143"/>
       <c r="G38" s="155"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1">
+    <row r="39" spans="1:7" ht="60">
       <c r="A39" s="205" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B39" s="206"/>
       <c r="C39" s="206"/>
       <c r="D39" s="207">
         <v>-0.05</v>
       </c>
-      <c r="E39" s="206"/>
+      <c r="E39" s="206">
+        <v>1</v>
+      </c>
       <c r="F39" s="206"/>
-      <c r="G39" s="208"/>
+      <c r="G39" s="285" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="24" thickBot="1">
-      <c r="A40" s="272" t="s">
+      <c r="A40" s="271" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="273"/>
-      <c r="C40" s="273"/>
-      <c r="D40" s="273"/>
-      <c r="E40" s="273"/>
-      <c r="F40" s="273"/>
-      <c r="G40" s="274"/>
+      <c r="B40" s="272"/>
+      <c r="C40" s="272"/>
+      <c r="D40" s="272"/>
+      <c r="E40" s="272"/>
+      <c r="F40" s="272"/>
+      <c r="G40" s="273"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="159" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="275"/>
-      <c r="C41" s="275"/>
-      <c r="D41" s="275"/>
-      <c r="E41" s="275"/>
-      <c r="F41" s="275"/>
-      <c r="G41" s="276"/>
+        <v>132</v>
+      </c>
+      <c r="B41" s="274"/>
+      <c r="C41" s="274"/>
+      <c r="D41" s="274"/>
+      <c r="E41" s="274"/>
+      <c r="F41" s="274"/>
+      <c r="G41" s="275"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="178" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B42" s="179" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="179" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D42" s="179" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="179" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F42" s="180" t="s">
         <v>17</v>
@@ -5256,7 +5457,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="156" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B43" s="145">
         <v>0</v>
@@ -5276,7 +5477,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="175" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B44" s="176">
         <v>0</v>
@@ -5296,7 +5497,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="156" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B45" s="145">
         <v>0</v>
@@ -5316,7 +5517,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="175" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B46" s="176">
         <v>0</v>
@@ -5336,7 +5537,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="156" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B47" s="145">
         <v>0</v>
@@ -5356,7 +5557,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="175" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B48" s="176">
         <v>0</v>
@@ -5376,7 +5577,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="156" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B49" s="145">
         <v>0</v>
@@ -5396,7 +5597,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="175" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B50" s="176">
         <v>0</v>
@@ -5416,7 +5617,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="156" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B51" s="145">
         <v>0</v>
@@ -5436,7 +5637,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="175" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B52" s="176">
         <v>0</v>
@@ -5456,7 +5657,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="163" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B53" s="164"/>
       <c r="C53" s="164"/>
@@ -5473,7 +5674,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="175" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B54" s="182"/>
       <c r="C54" s="182"/>
@@ -5486,7 +5687,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="156" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B55" s="146"/>
       <c r="C55" s="146"/>
@@ -5499,7 +5700,7 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1">
       <c r="A56" s="185" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B56" s="186"/>
       <c r="C56" s="186"/>
@@ -5540,6 +5741,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5671,23 +5887,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5695,5 +5896,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
--- a/Equipe104.xlsx
+++ b/Equipe104.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24805"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{627E0D21-35C1-489D-97C8-510F5FE9A705}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{396E3DF3-80CB-438B-AD3F-A384525FD712}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="194">
   <si>
     <t>Fonct.</t>
   </si>
@@ -142,6 +142,9 @@
     <t>socketManager</t>
   </si>
   <si>
+    <t>DatabaseService</t>
+  </si>
+  <si>
     <t>1.5 Valeur par défaut</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
 IndexWaitingService</t>
   </si>
   <si>
+    <t>Il y a encore des différences entre les fichiers</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -260,6 +266,9 @@
   </si>
   <si>
     <t>Format differents pour les constantes (ex: VALEUR_TEMPS_DEFAULT vs LONGUEURNOMMAX), Faites la distinction entre variables locales et constantes (ex: ALLOWED_NUMBER_OF_LETTERS)</t>
+  </si>
+  <si>
+    <t>Format differents pour les constantes (ex: DEFAULT_WIDTH vs NUMBEROFCASE), Faites la distinction entre variables locales et constantes (ex: ALLOWED_NUMBER_OF_LETTERS)</t>
   </si>
   <si>
     <t>5. Expression booléennes</t>
@@ -299,6 +308,10 @@
 changeValidity</t>
   </si>
   <si>
+    <t>ObjectivesComponent getObjective
+GameSelectionPageComponent getMode</t>
+  </si>
+  <si>
     <t>5.4 Prédicats</t>
   </si>
   <si>
@@ -313,6 +326,11 @@
 verifyTileNotOutOfBounds</t>
   </si>
   <si>
+    <t>ObjectivesComponent privateLeft
+SidebarRightComponent verifyLettersPlaced
+ObjectivesService</t>
+  </si>
+  <si>
     <t>6. Qualité générale</t>
   </si>
   <si>
@@ -332,6 +350,9 @@
   </si>
   <si>
     <t>Pas de style dans le html</t>
+  </si>
+  <si>
+    <t>Pas de style de html (ex: main-page.component.html)</t>
   </si>
   <si>
     <t>6.3 Indentation et organisation</t>
@@ -452,6 +473,9 @@
 Le nom des merge requests devraient être plus précis et avoir une description</t>
   </si>
   <si>
+    <t>Nom pour les merge requests devraient être plus précis</t>
+  </si>
+  <si>
     <t>7.5 Fichiers</t>
   </si>
   <si>
@@ -597,13 +621,15 @@
     <t>Anciennes fonctionnalités brisées</t>
   </si>
   <si>
-    <t>Toujours pas de défilement pour la boite de communication
-Une partie solo ne peut pas commencer sans connexion au serveur</t>
+    <t>Toujours pas de défilement pour la boite de communication</t>
   </si>
   <si>
     <t>3.1 Meilleurs scores</t>
   </si>
   <si>
+    <t>Le système doit gérer les cas où le serveur  est down</t>
+  </si>
+  <si>
     <t>3.2 Mode admin</t>
   </si>
   <si>
@@ -619,6 +645,9 @@
     <t>3.6 Placement aléatoire dans une partie</t>
   </si>
   <si>
+    <t>Il est possible de rejoindre une partie aléatoirement alors qu'il y en a une seule</t>
+  </si>
+  <si>
     <t>3.7 Téléverser un nouveau dictionnaire</t>
   </si>
   <si>
@@ -629,6 +658,9 @@
   </si>
   <si>
     <t>3.10 Commande aide</t>
+  </si>
+  <si>
+    <t>ERROR: 'NG0304: '****i' is not a known element + Erreur d'execution  client + Tests qui fails (on ne peut pas avoir le coverage)</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1485,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2116,6 +2148,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2299,10 +2337,7 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2697,7 +2732,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2760,22 +2795,22 @@
       </c>
       <c r="B5" s="215">
         <f>(Fonctionnalités!E36)</f>
-        <v>0.74019999999999986</v>
+        <v>0.7861999999999999</v>
       </c>
       <c r="C5" s="216">
         <f>'Assurance Qualité'!F61</f>
-        <v>0.60750000000000004</v>
+        <v>0.62250000000000005</v>
       </c>
       <c r="D5" s="216">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.68711999999999995</v>
+        <v>0.72071999999999992</v>
       </c>
       <c r="F5" s="13">
         <v>25</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>17.177999999999997</v>
+        <v>18.017999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2784,22 +2819,22 @@
       </c>
       <c r="B6" s="218">
         <f>(Fonctionnalités!E53)</f>
-        <v>0</v>
+        <v>0.91859999999999986</v>
       </c>
       <c r="C6" s="219">
         <f>'Assurance Qualité'!I61</f>
-        <v>0</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="D6" s="219">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.86915999999999993</v>
       </c>
       <c r="F6" s="13">
         <v>20</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.383199999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2827,8 +2862,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2847,36 +2882,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="253"/>
+      <c r="J2" s="253"/>
+      <c r="K2" s="253"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="252" t="s">
+      <c r="A4" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="252"/>
-      <c r="J4" s="252"/>
-      <c r="K4" s="252"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
@@ -2896,36 +2931,36 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="246" t="s">
+      <c r="C6" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="247"/>
-      <c r="E6" s="247"/>
-      <c r="F6" s="248" t="s">
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="249"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="253" t="s">
+      <c r="G6" s="251"/>
+      <c r="H6" s="252"/>
+      <c r="I6" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="254"/>
-      <c r="K6" s="255"/>
+      <c r="J6" s="256"/>
+      <c r="K6" s="257"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="242"/>
-      <c r="O6" s="243"/>
-      <c r="P6" s="243"/>
+      <c r="N6" s="244"/>
+      <c r="O6" s="245"/>
+      <c r="P6" s="245"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A7" s="245"/>
-      <c r="B7" s="257"/>
+      <c r="A7" s="247"/>
+      <c r="B7" s="259"/>
       <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
@@ -2961,26 +2996,26 @@
       <c r="Q7" s="220"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="233" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="262"/>
-      <c r="C8" s="266" t="s">
+      <c r="B8" s="264"/>
+      <c r="C8" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="267"/>
+      <c r="D8" s="269"/>
       <c r="E8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="266" t="s">
+      <c r="F8" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="267"/>
+      <c r="G8" s="269"/>
       <c r="H8" s="60"/>
-      <c r="I8" s="266" t="s">
+      <c r="I8" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="267"/>
+      <c r="J8" s="269"/>
       <c r="K8" s="60"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
@@ -3006,7 +3041,9 @@
         <v>3</v>
       </c>
       <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="I9" s="55">
+        <v>1</v>
+      </c>
       <c r="J9" s="49">
         <v>3</v>
       </c>
@@ -3037,7 +3074,9 @@
         <v>2</v>
       </c>
       <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
+      <c r="I10" s="39">
+        <v>1</v>
+      </c>
       <c r="J10" s="34">
         <v>2</v>
       </c>
@@ -3068,7 +3107,9 @@
         <v>3</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="I11" s="39">
+        <v>1</v>
+      </c>
       <c r="J11" s="34">
         <v>3</v>
       </c>
@@ -3101,20 +3142,24 @@
       <c r="H12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="39"/>
+      <c r="I12" s="39">
+        <v>0.75</v>
+      </c>
       <c r="J12" s="34">
         <v>2</v>
       </c>
-      <c r="K12" s="40"/>
+      <c r="K12" s="40" t="s">
+        <v>31</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:17" ht="90">
       <c r="A13" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="35">
         <v>0</v>
@@ -3123,7 +3168,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="37">
         <v>0</v>
@@ -3132,21 +3177,25 @@
         <v>4</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="39"/>
+        <v>35</v>
+      </c>
+      <c r="I13" s="39">
+        <v>0</v>
+      </c>
       <c r="J13" s="34">
         <v>4</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40" t="s">
+        <v>36</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:17" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="258" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="259"/>
+      <c r="A14" s="260" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="261"/>
       <c r="C14" s="87">
         <f>SUMPRODUCT(C9:C13,D9:D13)</f>
         <v>4.5</v>
@@ -3167,7 +3216,7 @@
       <c r="H14" s="92"/>
       <c r="I14" s="93">
         <f>SUMPRODUCT(I9:I13,J9:J13)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="J14" s="94">
         <f>SUM(J9:J13)</f>
@@ -3178,36 +3227,36 @@
       <c r="M14" s="96"/>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A15" s="263" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="264"/>
-      <c r="C15" s="266" t="s">
+      <c r="A15" s="265" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="266"/>
+      <c r="C15" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="267"/>
+      <c r="D15" s="269"/>
       <c r="E15" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="266" t="s">
+      <c r="F15" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="267"/>
+      <c r="G15" s="269"/>
       <c r="H15" s="60"/>
-      <c r="I15" s="266" t="s">
+      <c r="I15" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="267"/>
+      <c r="J15" s="269"/>
       <c r="K15" s="60"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="45">
       <c r="A16" s="78" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="62">
         <v>1</v>
@@ -3223,9 +3272,11 @@
         <v>2</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="74"/>
+        <v>41</v>
+      </c>
+      <c r="I16" s="74">
+        <v>1</v>
+      </c>
       <c r="J16" s="75">
         <v>2</v>
       </c>
@@ -3235,10 +3286,10 @@
     </row>
     <row r="17" spans="1:13" ht="30">
       <c r="A17" s="21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="45">
         <v>1</v>
@@ -3254,7 +3305,9 @@
         <v>3</v>
       </c>
       <c r="H17" s="72"/>
-      <c r="I17" s="77"/>
+      <c r="I17" s="77">
+        <v>1</v>
+      </c>
       <c r="J17" s="44">
         <v>3</v>
       </c>
@@ -3264,10 +3317,10 @@
     </row>
     <row r="18" spans="1:13" ht="45">
       <c r="A18" s="21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="45">
         <v>1</v>
@@ -3283,7 +3336,9 @@
         <v>3</v>
       </c>
       <c r="H18" s="72"/>
-      <c r="I18" s="77"/>
+      <c r="I18" s="77">
+        <v>1</v>
+      </c>
       <c r="J18" s="44">
         <v>3</v>
       </c>
@@ -3293,10 +3348,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="45">
         <v>1</v>
@@ -3312,7 +3367,9 @@
         <v>3</v>
       </c>
       <c r="H19" s="72"/>
-      <c r="I19" s="77"/>
+      <c r="I19" s="77">
+        <v>1</v>
+      </c>
       <c r="J19" s="44">
         <v>3</v>
       </c>
@@ -3322,10 +3379,10 @@
     </row>
     <row r="20" spans="1:13" ht="30">
       <c r="A20" s="21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="45">
         <v>1</v>
@@ -3341,7 +3398,9 @@
         <v>2</v>
       </c>
       <c r="H20" s="72"/>
-      <c r="I20" s="77"/>
+      <c r="I20" s="77">
+        <v>1</v>
+      </c>
       <c r="J20" s="44">
         <v>2</v>
       </c>
@@ -3350,10 +3409,10 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A21" s="265" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="261"/>
+      <c r="A21" s="267" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="263"/>
       <c r="C21" s="98">
         <f>SUMPRODUCT(C16:C20,D16:D20)</f>
         <v>13</v>
@@ -3374,7 +3433,7 @@
       <c r="H21" s="103"/>
       <c r="I21" s="104">
         <f>SUMPRODUCT(I16:I20,J16:J20)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J21" s="105">
         <f>SUM(J16:J20)</f>
@@ -3385,36 +3444,36 @@
       <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A22" s="231" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="262"/>
-      <c r="C22" s="266" t="s">
+      <c r="A22" s="233" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="264"/>
+      <c r="C22" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="267"/>
+      <c r="D22" s="269"/>
       <c r="E22" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="266" t="s">
+      <c r="F22" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="267"/>
+      <c r="G22" s="269"/>
       <c r="H22" s="60"/>
-      <c r="I22" s="266" t="s">
+      <c r="I22" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="267"/>
+      <c r="J22" s="269"/>
       <c r="K22" s="60"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="60">
       <c r="A23" s="80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="84">
         <v>1</v>
@@ -3430,7 +3489,9 @@
         <v>2</v>
       </c>
       <c r="H23" s="111"/>
-      <c r="I23" s="114"/>
+      <c r="I23" s="114">
+        <v>1</v>
+      </c>
       <c r="J23" s="115">
         <v>2</v>
       </c>
@@ -3440,10 +3501,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="45">
         <v>1</v>
@@ -3459,7 +3520,9 @@
         <v>1</v>
       </c>
       <c r="H24" s="72"/>
-      <c r="I24" s="77"/>
+      <c r="I24" s="77">
+        <v>1</v>
+      </c>
       <c r="J24" s="44">
         <v>1</v>
       </c>
@@ -3469,10 +3532,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="82" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="45">
         <v>1</v>
@@ -3488,7 +3551,9 @@
         <v>1</v>
       </c>
       <c r="H25" s="72"/>
-      <c r="I25" s="77"/>
+      <c r="I25" s="77">
+        <v>1</v>
+      </c>
       <c r="J25" s="44">
         <v>1</v>
       </c>
@@ -3497,10 +3562,10 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A26" s="260" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="261"/>
+      <c r="A26" s="262" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="263"/>
       <c r="C26" s="87">
         <f>SUMPRODUCT(C23:C25,D23:D25)</f>
         <v>4</v>
@@ -3521,7 +3586,7 @@
       <c r="H26" s="103"/>
       <c r="I26" s="104">
         <f>SUMPRODUCT(I23:I25,J23:J25)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" s="105">
         <f>SUM(J23:J25)</f>
@@ -3532,40 +3597,40 @@
       <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A27" s="231" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="262"/>
-      <c r="C27" s="266" t="s">
+      <c r="A27" s="233" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="264"/>
+      <c r="C27" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="267"/>
+      <c r="D27" s="269"/>
       <c r="E27" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="266" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="267"/>
+      <c r="G27" s="269"/>
       <c r="H27" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="266" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="267"/>
+      <c r="J27" s="269"/>
       <c r="K27" s="60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="45">
       <c r="A28" s="120" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" s="121" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="112">
         <v>0.75</v>
@@ -3574,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="113" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="107">
         <v>1</v>
@@ -3583,7 +3648,9 @@
         <v>2</v>
       </c>
       <c r="H28" s="67"/>
-      <c r="I28" s="118"/>
+      <c r="I28" s="118">
+        <v>1</v>
+      </c>
       <c r="J28" s="73">
         <v>2</v>
       </c>
@@ -3593,10 +3660,10 @@
     </row>
     <row r="29" spans="1:13" ht="30">
       <c r="A29" s="56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C29" s="45">
         <v>0</v>
@@ -3605,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F29" s="71">
         <v>0</v>
@@ -3614,22 +3681,26 @@
         <v>2</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="77"/>
+        <v>64</v>
+      </c>
+      <c r="I29" s="77">
+        <v>0</v>
+      </c>
       <c r="J29" s="44">
         <v>2</v>
       </c>
-      <c r="K29" s="46"/>
+      <c r="K29" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30" s="45">
         <v>1</v>
@@ -3645,7 +3716,9 @@
         <v>2</v>
       </c>
       <c r="H30" s="43"/>
-      <c r="I30" s="77"/>
+      <c r="I30" s="77">
+        <v>1</v>
+      </c>
       <c r="J30" s="44">
         <v>2</v>
       </c>
@@ -3655,10 +3728,10 @@
     </row>
     <row r="31" spans="1:13" ht="135">
       <c r="A31" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" s="45">
         <v>0</v>
@@ -3667,7 +3740,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F31" s="71">
         <v>0</v>
@@ -3676,21 +3749,25 @@
         <v>3</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="I31" s="77"/>
+        <v>69</v>
+      </c>
+      <c r="I31" s="77">
+        <v>0</v>
+      </c>
       <c r="J31" s="44">
         <v>3</v>
       </c>
-      <c r="K31" s="46"/>
+      <c r="K31" s="46" t="s">
+        <v>70</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A32" s="258" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="259"/>
+      <c r="A32" s="260" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="261"/>
       <c r="C32" s="87">
         <f>SUMPRODUCT(C28:C31,D28:D31)</f>
         <v>3.5</v>
@@ -3711,7 +3788,7 @@
       <c r="H32" s="117"/>
       <c r="I32" s="104">
         <f>SUMPRODUCT(I28:I31,J28:J31)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" s="105">
         <f>SUM(J28:J31)</f>
@@ -3722,21 +3799,21 @@
       <c r="M32" s="96"/>
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A33" s="231" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="232"/>
-      <c r="C33" s="266" t="s">
+      <c r="A33" s="233" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="234"/>
+      <c r="C33" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="267"/>
+      <c r="D33" s="269"/>
       <c r="E33" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="266" t="s">
+      <c r="F33" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="267"/>
+      <c r="G33" s="269"/>
       <c r="H33" s="60"/>
       <c r="I33" s="58" t="s">
         <v>17</v>
@@ -3748,10 +3825,10 @@
     </row>
     <row r="34" spans="1:13" ht="75">
       <c r="A34" s="120" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" s="112">
         <v>0</v>
@@ -3760,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="113" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F34" s="107">
         <v>1</v>
@@ -3769,7 +3846,9 @@
         <v>1</v>
       </c>
       <c r="H34" s="108"/>
-      <c r="I34" s="118"/>
+      <c r="I34" s="118">
+        <v>1</v>
+      </c>
       <c r="J34" s="73">
         <v>1</v>
       </c>
@@ -3779,10 +3858,10 @@
     </row>
     <row r="35" spans="1:13" ht="30">
       <c r="A35" s="56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C35" s="45">
         <v>1</v>
@@ -3798,7 +3877,9 @@
         <v>1</v>
       </c>
       <c r="H35" s="72"/>
-      <c r="I35" s="77"/>
+      <c r="I35" s="77">
+        <v>1</v>
+      </c>
       <c r="J35" s="44">
         <v>1</v>
       </c>
@@ -3808,10 +3889,10 @@
     </row>
     <row r="36" spans="1:13" ht="120">
       <c r="A36" s="21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C36" s="45">
         <v>0</v>
@@ -3820,7 +3901,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F36" s="71">
         <v>0.5</v>
@@ -3829,22 +3910,26 @@
         <v>3</v>
       </c>
       <c r="H36" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="I36" s="77"/>
+        <v>80</v>
+      </c>
+      <c r="I36" s="77">
+        <v>0</v>
+      </c>
       <c r="J36" s="44">
         <v>3</v>
       </c>
-      <c r="K36" s="46"/>
+      <c r="K36" s="46" t="s">
+        <v>81</v>
+      </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" ht="45">
+    <row r="37" spans="1:13" ht="90">
       <c r="A37" s="21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C37" s="45">
         <v>0.75</v>
@@ -3853,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F37" s="71">
         <v>0.5</v>
@@ -3862,21 +3947,25 @@
         <v>3</v>
       </c>
       <c r="H37" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" s="77"/>
+        <v>85</v>
+      </c>
+      <c r="I37" s="77">
+        <v>0</v>
+      </c>
       <c r="J37" s="44">
         <v>3</v>
       </c>
-      <c r="K37" s="46"/>
+      <c r="K37" s="46" t="s">
+        <v>86</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" s="97" customFormat="1" ht="15.75">
-      <c r="A38" s="258" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="259"/>
+      <c r="A38" s="260" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="261"/>
       <c r="C38" s="122">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>3.25</v>
@@ -3897,7 +3986,7 @@
       <c r="H38" s="92"/>
       <c r="I38" s="104">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" s="105">
         <f>SUM(J34:J37)</f>
@@ -3908,40 +3997,40 @@
       <c r="M38" s="96"/>
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="231" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="262"/>
-      <c r="C39" s="266" t="s">
+      <c r="A39" s="233" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="264"/>
+      <c r="C39" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="267"/>
+      <c r="D39" s="269"/>
       <c r="E39" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="266" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="267"/>
+      <c r="G39" s="269"/>
       <c r="H39" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" s="266" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="267"/>
+      <c r="J39" s="269"/>
       <c r="K39" s="60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="60">
       <c r="A40" s="78" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C40" s="84">
         <v>0</v>
@@ -3950,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="86" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F40" s="109">
         <v>0</v>
@@ -3959,22 +4048,26 @@
         <v>1</v>
       </c>
       <c r="H40" s="111" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" s="114"/>
+        <v>90</v>
+      </c>
+      <c r="I40" s="114">
+        <v>0</v>
+      </c>
       <c r="J40" s="115">
         <v>1</v>
       </c>
-      <c r="K40" s="116"/>
+      <c r="K40" s="116" t="s">
+        <v>90</v>
+      </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" ht="30">
+    <row r="41" spans="1:13" ht="45">
       <c r="A41" s="21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C41" s="45">
         <v>0.25</v>
@@ -3983,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F41" s="71">
         <v>0.25</v>
@@ -3992,22 +4085,26 @@
         <v>4</v>
       </c>
       <c r="H41" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="I41" s="77"/>
+        <v>93</v>
+      </c>
+      <c r="I41" s="77">
+        <v>0.5</v>
+      </c>
       <c r="J41" s="44">
         <v>4</v>
       </c>
-      <c r="K41" s="46"/>
+      <c r="K41" s="46" t="s">
+        <v>94</v>
+      </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="30">
       <c r="A42" s="21" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C42" s="45">
         <v>1</v>
@@ -4023,7 +4120,9 @@
         <v>3</v>
       </c>
       <c r="H42" s="72"/>
-      <c r="I42" s="77"/>
+      <c r="I42" s="77">
+        <v>1</v>
+      </c>
       <c r="J42" s="44">
         <v>3</v>
       </c>
@@ -4033,10 +4132,10 @@
     </row>
     <row r="43" spans="1:13" ht="45">
       <c r="A43" s="21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C43" s="45">
         <v>0</v>
@@ -4045,7 +4144,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="65" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F43" s="71">
         <v>0.5</v>
@@ -4054,9 +4153,11 @@
         <v>2</v>
       </c>
       <c r="H43" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="I43" s="77"/>
+        <v>99</v>
+      </c>
+      <c r="I43" s="77">
+        <v>1</v>
+      </c>
       <c r="J43" s="44">
         <v>2</v>
       </c>
@@ -4065,10 +4166,10 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="21" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C44" s="35">
         <v>0</v>
@@ -4077,7 +4178,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F44" s="37">
         <v>0</v>
@@ -4086,22 +4187,26 @@
         <v>2</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="I44" s="39"/>
+        <v>102</v>
+      </c>
+      <c r="I44" s="39">
+        <v>0.5</v>
+      </c>
       <c r="J44" s="34">
         <v>2</v>
       </c>
-      <c r="K44" s="40"/>
+      <c r="K44" s="40" t="s">
+        <v>102</v>
+      </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="45">
       <c r="A45" s="21" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C45" s="35">
         <v>0.5</v>
@@ -4110,7 +4215,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F45" s="37">
         <v>1</v>
@@ -4119,7 +4224,9 @@
         <v>3</v>
       </c>
       <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
+      <c r="I45" s="39">
+        <v>1</v>
+      </c>
       <c r="J45" s="34">
         <v>3</v>
       </c>
@@ -4129,10 +4236,10 @@
     </row>
     <row r="46" spans="1:13" ht="45">
       <c r="A46" s="21" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C46" s="45">
         <v>0.75</v>
@@ -4141,7 +4248,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="65" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F46" s="71">
         <v>0.75</v>
@@ -4150,9 +4257,11 @@
         <v>3</v>
       </c>
       <c r="H46" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="I46" s="77"/>
+        <v>108</v>
+      </c>
+      <c r="I46" s="77">
+        <v>1</v>
+      </c>
       <c r="J46" s="44">
         <v>3</v>
       </c>
@@ -4162,10 +4271,10 @@
     </row>
     <row r="47" spans="1:13" ht="60">
       <c r="A47" s="21" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C47" s="45">
         <v>0</v>
@@ -4174,18 +4283,20 @@
         <v>6</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F47" s="71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G47" s="42">
         <v>6</v>
       </c>
       <c r="H47" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="I47" s="77"/>
+        <v>111</v>
+      </c>
+      <c r="I47" s="77">
+        <v>1</v>
+      </c>
       <c r="J47" s="44">
         <v>6</v>
       </c>
@@ -4195,10 +4306,10 @@
     </row>
     <row r="48" spans="1:13" ht="45">
       <c r="A48" s="21" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C48" s="45">
         <v>0.5</v>
@@ -4207,7 +4318,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F48" s="71">
         <v>1</v>
@@ -4216,7 +4327,9 @@
         <v>8</v>
       </c>
       <c r="H48" s="72"/>
-      <c r="I48" s="77"/>
+      <c r="I48" s="77">
+        <v>1</v>
+      </c>
       <c r="J48" s="44">
         <v>8</v>
       </c>
@@ -4226,10 +4339,10 @@
     </row>
     <row r="49" spans="1:13" ht="30">
       <c r="A49" s="21" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C49" s="45">
         <v>0</v>
@@ -4245,7 +4358,9 @@
         <v>6</v>
       </c>
       <c r="H49" s="72"/>
-      <c r="I49" s="77"/>
+      <c r="I49" s="77">
+        <v>1</v>
+      </c>
       <c r="J49" s="44">
         <v>6</v>
       </c>
@@ -4255,10 +4370,10 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="21" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C50" s="45">
         <v>0.5</v>
@@ -4267,7 +4382,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="65" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F50" s="71">
         <v>1</v>
@@ -4276,7 +4391,9 @@
         <v>3</v>
       </c>
       <c r="H50" s="72"/>
-      <c r="I50" s="77"/>
+      <c r="I50" s="77">
+        <v>1</v>
+      </c>
       <c r="J50" s="44">
         <v>3</v>
       </c>
@@ -4285,10 +4402,10 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A51" s="258" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="259"/>
+      <c r="A51" s="260" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="261"/>
       <c r="C51" s="132">
         <f>SUMPRODUCT(C40:C50,D40:D50)</f>
         <v>13.25</v>
@@ -4300,7 +4417,7 @@
       <c r="E51" s="100"/>
       <c r="F51" s="123">
         <f>SUMPRODUCT(F40:F50,G40:G50)</f>
-        <v>21.25</v>
+        <v>22.75</v>
       </c>
       <c r="G51" s="91">
         <f>SUM(G40:G50)</f>
@@ -4309,7 +4426,7 @@
       <c r="H51" s="92"/>
       <c r="I51" s="93">
         <f>SUMPRODUCT(I40:I50,J40:J50)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J51" s="94">
         <f>SUM(J40:J50)</f>
@@ -4320,36 +4437,36 @@
       <c r="M51" s="96"/>
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A52" s="231" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="232"/>
-      <c r="C52" s="266" t="s">
+      <c r="A52" s="233" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="234"/>
+      <c r="C52" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="267"/>
+      <c r="D52" s="269"/>
       <c r="E52" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="266" t="s">
+      <c r="F52" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="267"/>
+      <c r="G52" s="269"/>
       <c r="H52" s="60"/>
-      <c r="I52" s="266" t="s">
+      <c r="I52" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="267"/>
+      <c r="J52" s="269"/>
       <c r="K52" s="60"/>
       <c r="L52" s="15"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" ht="30">
       <c r="A53" s="78" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C53" s="112">
         <v>1</v>
@@ -4365,7 +4482,9 @@
         <v>2</v>
       </c>
       <c r="H53" s="111"/>
-      <c r="I53" s="127"/>
+      <c r="I53" s="127">
+        <v>1</v>
+      </c>
       <c r="J53" s="128">
         <v>2</v>
       </c>
@@ -4375,10 +4494,10 @@
     </row>
     <row r="54" spans="1:13" ht="60">
       <c r="A54" s="21" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C54" s="45">
         <v>0</v>
@@ -4387,7 +4506,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F54" s="71">
         <v>0</v>
@@ -4396,9 +4515,11 @@
         <v>2</v>
       </c>
       <c r="H54" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="I54" s="130"/>
+        <v>126</v>
+      </c>
+      <c r="I54" s="130">
+        <v>1</v>
+      </c>
       <c r="J54" s="124">
         <v>2</v>
       </c>
@@ -4408,10 +4529,10 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="56" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C55" s="45">
         <v>0</v>
@@ -4427,7 +4548,9 @@
         <v>1</v>
       </c>
       <c r="H55" s="72"/>
-      <c r="I55" s="130"/>
+      <c r="I55" s="130">
+        <v>1</v>
+      </c>
       <c r="J55" s="124">
         <v>1</v>
       </c>
@@ -4437,10 +4560,10 @@
     </row>
     <row r="56" spans="1:13" ht="135">
       <c r="A56" s="56" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C56" s="45">
         <v>0.5</v>
@@ -4449,7 +4572,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="65" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F56" s="71">
         <v>0.5</v>
@@ -4458,22 +4581,26 @@
         <v>4</v>
       </c>
       <c r="H56" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="I56" s="130"/>
+        <v>131</v>
+      </c>
+      <c r="I56" s="130">
+        <v>0.75</v>
+      </c>
       <c r="J56" s="124">
         <v>4</v>
       </c>
-      <c r="K56" s="131"/>
+      <c r="K56" s="131" t="s">
+        <v>132</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" ht="45">
       <c r="A57" s="21" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C57" s="45">
         <v>1</v>
@@ -4489,9 +4616,11 @@
         <v>2</v>
       </c>
       <c r="H57" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="I57" s="130"/>
+        <v>135</v>
+      </c>
+      <c r="I57" s="130">
+        <v>1</v>
+      </c>
       <c r="J57" s="124">
         <v>2</v>
       </c>
@@ -4500,10 +4629,10 @@
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A58" s="258" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" s="259"/>
+      <c r="A58" s="260" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="261"/>
       <c r="C58" s="98">
         <f>SUMPRODUCT(C53:C57,D53:D57)</f>
         <v>6</v>
@@ -4524,7 +4653,7 @@
       <c r="H58" s="103"/>
       <c r="I58" s="93">
         <f>SUMPRODUCT(I53:I57,J53:J57)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J58" s="94">
         <f>SUM(J53:J57)</f>
@@ -4535,27 +4664,27 @@
       <c r="M58" s="96"/>
     </row>
     <row r="59" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="224" t="s">
+      <c r="A59" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="225"/>
-      <c r="C59" s="225"/>
-      <c r="D59" s="225"/>
-      <c r="E59" s="225"/>
-      <c r="F59" s="225"/>
-      <c r="G59" s="225"/>
-      <c r="H59" s="225"/>
-      <c r="I59" s="225"/>
-      <c r="J59" s="225"/>
-      <c r="K59" s="226"/>
+      <c r="B59" s="227"/>
+      <c r="C59" s="227"/>
+      <c r="D59" s="227"/>
+      <c r="E59" s="227"/>
+      <c r="F59" s="227"/>
+      <c r="G59" s="227"/>
+      <c r="H59" s="227"/>
+      <c r="I59" s="227"/>
+      <c r="J59" s="227"/>
+      <c r="K59" s="228"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="227" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" s="228"/>
+      <c r="A60" s="229" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="230"/>
       <c r="C60" s="133">
         <f t="shared" ref="C60:J60" si="0">C14+C21+C26+C32+C38+C51+C58</f>
         <v>47.5</v>
@@ -4567,7 +4696,7 @@
       <c r="E60" s="64"/>
       <c r="F60" s="134">
         <f t="shared" si="0"/>
-        <v>60.75</v>
+        <v>62.25</v>
       </c>
       <c r="G60" s="69">
         <f t="shared" si="0"/>
@@ -4576,7 +4705,7 @@
       <c r="H60" s="70"/>
       <c r="I60" s="135">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79.5</v>
       </c>
       <c r="J60" s="125">
         <f t="shared" si="0"/>
@@ -4587,28 +4716,28 @@
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="229" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" s="230"/>
-      <c r="C61" s="233">
+      <c r="A61" s="231" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="232"/>
+      <c r="C61" s="235">
         <f>C60/D60</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="D61" s="234"/>
-      <c r="E61" s="235"/>
-      <c r="F61" s="236">
+      <c r="D61" s="236"/>
+      <c r="E61" s="237"/>
+      <c r="F61" s="238">
         <f>F60/G60</f>
-        <v>0.60750000000000004</v>
-      </c>
-      <c r="G61" s="237"/>
-      <c r="H61" s="238"/>
-      <c r="I61" s="239">
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="G61" s="239"/>
+      <c r="H61" s="240"/>
+      <c r="I61" s="241">
         <f>I60/J60</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="240"/>
-      <c r="K61" s="241"/>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="J61" s="242"/>
+      <c r="K61" s="243"/>
       <c r="L61" s="136"/>
       <c r="M61" s="136"/>
     </row>
@@ -4683,8 +4812,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4698,15 +4827,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="268"/>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="139"/>
@@ -4719,7 +4848,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="137" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B4" s="137"/>
       <c r="C4" s="137"/>
@@ -4730,42 +4859,42 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="24" thickBot="1">
-      <c r="A6" s="276" t="s">
+      <c r="A6" s="278" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="277"/>
-      <c r="C6" s="277"/>
-      <c r="D6" s="277"/>
-      <c r="E6" s="277"/>
-      <c r="F6" s="277"/>
-      <c r="G6" s="278"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="279"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="280"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="279"/>
-      <c r="C7" s="279"/>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="280"/>
+        <v>139</v>
+      </c>
+      <c r="B7" s="281"/>
+      <c r="C7" s="281"/>
+      <c r="D7" s="281"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="282"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="209" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B8" s="189" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="189" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D8" s="189" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="189" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F8" s="189" t="s">
         <v>17</v>
@@ -4776,7 +4905,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="148" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B9" s="141">
         <v>1</v>
@@ -4792,13 +4921,13 @@
         <v>5</v>
       </c>
       <c r="F9" s="141" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="149"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="191" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B10" s="192">
         <v>0.94</v>
@@ -4814,13 +4943,13 @@
         <v>4.6999999999999993</v>
       </c>
       <c r="F10" s="192" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G10" s="193"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="148" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B11" s="141">
         <v>0.5</v>
@@ -4836,13 +4965,13 @@
         <v>6.75</v>
       </c>
       <c r="F11" s="141" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G11" s="149"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="191" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B12" s="192">
         <v>0.85</v>
@@ -4858,13 +4987,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="F12" s="192" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G12" s="193"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="148" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B13" s="141">
         <v>0.95</v>
@@ -4883,12 +5012,12 @@
         <v>18</v>
       </c>
       <c r="G13" s="149" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="90">
       <c r="A14" s="148" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B14" s="141">
         <v>0.75</v>
@@ -4907,12 +5036,12 @@
         <v>18</v>
       </c>
       <c r="G14" s="223" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="191" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B15" s="192">
         <v>1</v>
@@ -4934,7 +5063,7 @@
     </row>
     <row r="16" spans="1:7" ht="45">
       <c r="A16" s="148" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B16" s="141">
         <v>0.8</v>
@@ -4953,12 +5082,12 @@
         <v>18</v>
       </c>
       <c r="G16" s="223" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="191" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B17" s="192">
         <v>1</v>
@@ -4980,7 +5109,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="148" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B18" s="141">
         <v>0.66</v>
@@ -4996,13 +5125,13 @@
         <v>3.96</v>
       </c>
       <c r="F18" s="141" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G18" s="149"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="191" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B19" s="192">
         <v>1</v>
@@ -5024,10 +5153,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="171" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="281"/>
-      <c r="C20" s="281"/>
+        <v>157</v>
+      </c>
+      <c r="B20" s="283"/>
+      <c r="C20" s="283"/>
       <c r="D20" s="222">
         <f>SUM(D9:D19)</f>
         <v>100</v>
@@ -5041,7 +5170,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="191" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B21" s="194"/>
       <c r="C21" s="194"/>
@@ -5053,12 +5182,12 @@
       </c>
       <c r="F21" s="194"/>
       <c r="G21" s="196" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="150" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B22" s="151"/>
       <c r="C22" s="151"/>
@@ -5070,42 +5199,42 @@
       <c r="G22" s="153"/>
     </row>
     <row r="23" spans="1:7" ht="24" thickBot="1">
-      <c r="A23" s="282" t="s">
+      <c r="A23" s="284" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="283"/>
-      <c r="C23" s="283"/>
-      <c r="D23" s="283"/>
-      <c r="E23" s="283"/>
-      <c r="F23" s="283"/>
-      <c r="G23" s="284"/>
+      <c r="B23" s="285"/>
+      <c r="C23" s="285"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="285"/>
+      <c r="F23" s="285"/>
+      <c r="G23" s="286"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="160" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="269"/>
-      <c r="C24" s="269"/>
-      <c r="D24" s="269"/>
-      <c r="E24" s="269"/>
-      <c r="F24" s="269"/>
-      <c r="G24" s="270"/>
+        <v>139</v>
+      </c>
+      <c r="B24" s="271"/>
+      <c r="C24" s="271"/>
+      <c r="D24" s="271"/>
+      <c r="E24" s="271"/>
+      <c r="F24" s="271"/>
+      <c r="G24" s="272"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="208" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B25" s="197" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="197" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D25" s="197" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="197" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F25" s="197" t="s">
         <v>17</v>
@@ -5116,7 +5245,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="154" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B26" s="142">
         <v>1</v>
@@ -5132,13 +5261,13 @@
         <v>18</v>
       </c>
       <c r="F26" s="142" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G26" s="162"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="199" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B27" s="200">
         <v>0.5</v>
@@ -5157,12 +5286,12 @@
         <v>18</v>
       </c>
       <c r="G27" s="201" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="154" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B28" s="142">
         <v>1</v>
@@ -5184,7 +5313,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="199" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B29" s="200">
         <v>1</v>
@@ -5200,16 +5329,16 @@
         <v>8</v>
       </c>
       <c r="F29" s="200" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G29" s="201"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="154" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B30" s="142">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="C30" s="142">
         <v>1</v>
@@ -5219,18 +5348,18 @@
       </c>
       <c r="E30" s="142">
         <f t="shared" si="1"/>
-        <v>8.6999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F30" s="142" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G30" s="162" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="199" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B31" s="200">
         <v>0.9</v>
@@ -5248,13 +5377,13 @@
       <c r="F31" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="286" t="s">
-        <v>162</v>
+      <c r="G31" s="225" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="154" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B32" s="142">
         <v>1</v>
@@ -5273,12 +5402,12 @@
         <v>18</v>
       </c>
       <c r="G32" s="162" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="199" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B33" s="200">
         <v>0.38</v>
@@ -5294,15 +5423,15 @@
         <v>1.52</v>
       </c>
       <c r="F33" s="200" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G33" s="201" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="154" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B34" s="142">
         <v>1</v>
@@ -5324,7 +5453,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="154" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B35" s="142">
         <v>0.5</v>
@@ -5340,15 +5469,15 @@
         <v>2</v>
       </c>
       <c r="F35" s="142" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G35" s="162" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="167" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B36" s="168"/>
       <c r="C36" s="168"/>
@@ -5358,14 +5487,14 @@
       </c>
       <c r="E36" s="169">
         <f>SUM(E26:E35)/D36 + E37*D37 + E38*D38 + E39*D39</f>
-        <v>0.74019999999999986</v>
+        <v>0.7861999999999999</v>
       </c>
       <c r="F36" s="169"/>
       <c r="G36" s="170"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="199" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B37" s="202"/>
       <c r="C37" s="202"/>
@@ -5377,12 +5506,12 @@
       </c>
       <c r="F37" s="202"/>
       <c r="G37" s="204" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="154" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B38" s="143"/>
       <c r="C38" s="143"/>
@@ -5393,9 +5522,9 @@
       <c r="F38" s="143"/>
       <c r="G38" s="155"/>
     </row>
-    <row r="39" spans="1:7" ht="60">
+    <row r="39" spans="1:7">
       <c r="A39" s="205" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B39" s="206"/>
       <c r="C39" s="206"/>
@@ -5403,50 +5532,50 @@
         <v>-0.05</v>
       </c>
       <c r="E39" s="206">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F39" s="206"/>
-      <c r="G39" s="285" t="s">
-        <v>173</v>
+      <c r="G39" s="224" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="24" thickBot="1">
-      <c r="A40" s="271" t="s">
+      <c r="A40" s="273" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="272"/>
-      <c r="C40" s="272"/>
-      <c r="D40" s="272"/>
-      <c r="E40" s="272"/>
-      <c r="F40" s="272"/>
-      <c r="G40" s="273"/>
+      <c r="B40" s="274"/>
+      <c r="C40" s="274"/>
+      <c r="D40" s="274"/>
+      <c r="E40" s="274"/>
+      <c r="F40" s="274"/>
+      <c r="G40" s="275"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="159" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="274"/>
-      <c r="C41" s="274"/>
-      <c r="D41" s="274"/>
-      <c r="E41" s="274"/>
-      <c r="F41" s="274"/>
-      <c r="G41" s="275"/>
+        <v>139</v>
+      </c>
+      <c r="B41" s="276"/>
+      <c r="C41" s="276"/>
+      <c r="D41" s="276"/>
+      <c r="E41" s="276"/>
+      <c r="F41" s="276"/>
+      <c r="G41" s="277"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="178" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B42" s="179" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="179" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D42" s="179" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="179" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F42" s="180" t="s">
         <v>17</v>
@@ -5457,207 +5586,231 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="156" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B43" s="145">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="C43" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="145">
         <v>14</v>
       </c>
       <c r="E43" s="145">
         <f t="shared" ref="E43:E52" si="2">B43*C43*D43</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="145"/>
-      <c r="G43" s="157"/>
+        <v>13.16</v>
+      </c>
+      <c r="F43" s="145" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="157" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="175" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B44" s="176">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C44" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="176">
         <v>10</v>
       </c>
       <c r="E44" s="176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="176"/>
+        <v>9</v>
+      </c>
+      <c r="F44" s="176" t="s">
+        <v>58</v>
+      </c>
       <c r="G44" s="177"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="156" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B45" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="145">
         <v>12</v>
       </c>
       <c r="E45" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="145"/>
+        <v>12</v>
+      </c>
+      <c r="F45" s="145" t="s">
+        <v>58</v>
+      </c>
       <c r="G45" s="157"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="175" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B46" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="176">
         <v>18</v>
       </c>
       <c r="E46" s="176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="176"/>
+        <v>18</v>
+      </c>
+      <c r="F46" s="176" t="s">
+        <v>18</v>
+      </c>
       <c r="G46" s="177"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="156" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B47" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="145">
         <v>16</v>
       </c>
       <c r="E47" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="145"/>
+        <v>16</v>
+      </c>
+      <c r="F47" s="145" t="s">
+        <v>18</v>
+      </c>
       <c r="G47" s="157"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="175" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B48" s="176">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="C48" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="176">
         <v>6</v>
       </c>
       <c r="E48" s="176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="176"/>
-      <c r="G48" s="177"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F48" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="287" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="156" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B49" s="145">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C49" s="145">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D49" s="145">
         <v>6</v>
       </c>
       <c r="E49" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="145"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="F49" s="145" t="s">
+        <v>58</v>
+      </c>
       <c r="G49" s="157"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="175" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B50" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="176">
         <v>6</v>
       </c>
       <c r="E50" s="176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="176"/>
+        <v>6</v>
+      </c>
+      <c r="F50" s="176" t="s">
+        <v>18</v>
+      </c>
       <c r="G50" s="177"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="156" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B51" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="145">
         <v>8</v>
       </c>
       <c r="E51" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="145"/>
+        <v>8</v>
+      </c>
+      <c r="F51" s="145" t="s">
+        <v>58</v>
+      </c>
       <c r="G51" s="157"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="175" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B52" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="176">
         <v>4</v>
       </c>
       <c r="E52" s="176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="176"/>
+        <v>4</v>
+      </c>
+      <c r="F52" s="176" t="s">
+        <v>18</v>
+      </c>
       <c r="G52" s="177"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="163" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B53" s="164"/>
       <c r="C53" s="164"/>
@@ -5667,27 +5820,31 @@
       </c>
       <c r="E53" s="165">
         <f>SUM(E43:E52)/D53 + D54*E54  + D55*E55 + D56*E56</f>
-        <v>0</v>
+        <v>0.91859999999999986</v>
       </c>
       <c r="F53" s="165"/>
       <c r="G53" s="166"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="175" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B54" s="182"/>
       <c r="C54" s="182"/>
       <c r="D54" s="183">
         <v>-0.15</v>
       </c>
-      <c r="E54" s="182"/>
+      <c r="E54" s="182">
+        <v>0.2</v>
+      </c>
       <c r="F54" s="182"/>
-      <c r="G54" s="184"/>
+      <c r="G54" s="184" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="156" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B55" s="146"/>
       <c r="C55" s="146"/>
@@ -5700,7 +5857,7 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1">
       <c r="A56" s="185" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B56" s="186"/>
       <c r="C56" s="186"/>
@@ -5741,21 +5898,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5887,14 +6035,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
--- a/Equipe104.xlsx
+++ b/Equipe104.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24805"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24806"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{396E3DF3-80CB-438B-AD3F-A384525FD712}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80A4797B-2025-4694-8CC4-0D24EEDE557A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -2154,6 +2154,93 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2175,12 +2262,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="16" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2207,84 +2288,6 @@
     </xf>
     <xf numFmtId="9" fontId="16" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2337,18 +2340,15 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
-    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="3" builtinId="21"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
+    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2731,8 +2731,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2843,13 +2843,15 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14">
+        <v>0.6</v>
+      </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2882,36 +2884,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253"/>
-      <c r="J2" s="253"/>
-      <c r="K2" s="253"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="248"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="248"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="254"/>
-      <c r="K4" s="254"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="249"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="249"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
@@ -2931,36 +2933,36 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="246" t="s">
+      <c r="A6" s="241" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="253" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="248" t="s">
+      <c r="C6" s="243" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="249"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="250" t="s">
+      <c r="D6" s="244"/>
+      <c r="E6" s="244"/>
+      <c r="F6" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="251"/>
-      <c r="H6" s="252"/>
-      <c r="I6" s="255" t="s">
+      <c r="G6" s="246"/>
+      <c r="H6" s="247"/>
+      <c r="I6" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="256"/>
-      <c r="K6" s="257"/>
+      <c r="J6" s="251"/>
+      <c r="K6" s="252"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="244"/>
-      <c r="O6" s="245"/>
-      <c r="P6" s="245"/>
+      <c r="N6" s="239"/>
+      <c r="O6" s="240"/>
+      <c r="P6" s="240"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A7" s="247"/>
-      <c r="B7" s="259"/>
+      <c r="A7" s="242"/>
+      <c r="B7" s="254"/>
       <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
@@ -2996,26 +2998,26 @@
       <c r="Q7" s="220"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A8" s="233" t="s">
+      <c r="A8" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="264"/>
-      <c r="C8" s="268" t="s">
+      <c r="B8" s="232"/>
+      <c r="C8" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="269"/>
+      <c r="D8" s="228"/>
       <c r="E8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="268" t="s">
+      <c r="F8" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="269"/>
+      <c r="G8" s="228"/>
       <c r="H8" s="60"/>
-      <c r="I8" s="268" t="s">
+      <c r="I8" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="269"/>
+      <c r="J8" s="228"/>
       <c r="K8" s="60"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
@@ -3192,10 +3194,10 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:17" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="260" t="s">
+      <c r="A14" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="261"/>
+      <c r="B14" s="230"/>
       <c r="C14" s="87">
         <f>SUMPRODUCT(C9:C13,D9:D13)</f>
         <v>4.5</v>
@@ -3227,26 +3229,26 @@
       <c r="M14" s="96"/>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A15" s="265" t="s">
+      <c r="A15" s="236" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="266"/>
-      <c r="C15" s="268" t="s">
+      <c r="B15" s="237"/>
+      <c r="C15" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="269"/>
+      <c r="D15" s="228"/>
       <c r="E15" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="268" t="s">
+      <c r="F15" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="269"/>
+      <c r="G15" s="228"/>
       <c r="H15" s="60"/>
-      <c r="I15" s="268" t="s">
+      <c r="I15" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="269"/>
+      <c r="J15" s="228"/>
       <c r="K15" s="60"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
@@ -3409,10 +3411,10 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A21" s="267" t="s">
+      <c r="A21" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="263"/>
+      <c r="B21" s="235"/>
       <c r="C21" s="98">
         <f>SUMPRODUCT(C16:C20,D16:D20)</f>
         <v>13</v>
@@ -3444,26 +3446,26 @@
       <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A22" s="233" t="s">
+      <c r="A22" s="231" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="264"/>
-      <c r="C22" s="268" t="s">
+      <c r="B22" s="232"/>
+      <c r="C22" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="269"/>
+      <c r="D22" s="228"/>
       <c r="E22" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="268" t="s">
+      <c r="F22" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="269"/>
+      <c r="G22" s="228"/>
       <c r="H22" s="60"/>
-      <c r="I22" s="268" t="s">
+      <c r="I22" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="269"/>
+      <c r="J22" s="228"/>
       <c r="K22" s="60"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -3562,10 +3564,10 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A26" s="262" t="s">
+      <c r="A26" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="263"/>
+      <c r="B26" s="235"/>
       <c r="C26" s="87">
         <f>SUMPRODUCT(C23:C25,D23:D25)</f>
         <v>4</v>
@@ -3597,28 +3599,28 @@
       <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A27" s="233" t="s">
+      <c r="A27" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="264"/>
-      <c r="C27" s="268" t="s">
+      <c r="B27" s="232"/>
+      <c r="C27" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="269"/>
+      <c r="D27" s="228"/>
       <c r="E27" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="268" t="s">
+      <c r="F27" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="269"/>
+      <c r="G27" s="228"/>
       <c r="H27" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="268" t="s">
+      <c r="I27" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="269"/>
+      <c r="J27" s="228"/>
       <c r="K27" s="60" t="s">
         <v>58</v>
       </c>
@@ -3764,10 +3766,10 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A32" s="260" t="s">
+      <c r="A32" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="261"/>
+      <c r="B32" s="230"/>
       <c r="C32" s="87">
         <f>SUMPRODUCT(C28:C31,D28:D31)</f>
         <v>3.5</v>
@@ -3799,21 +3801,21 @@
       <c r="M32" s="96"/>
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A33" s="233" t="s">
+      <c r="A33" s="231" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="234"/>
-      <c r="C33" s="268" t="s">
+      <c r="B33" s="233"/>
+      <c r="C33" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="269"/>
+      <c r="D33" s="228"/>
       <c r="E33" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="268" t="s">
+      <c r="F33" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="269"/>
+      <c r="G33" s="228"/>
       <c r="H33" s="60"/>
       <c r="I33" s="58" t="s">
         <v>17</v>
@@ -3962,10 +3964,10 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" s="97" customFormat="1" ht="15.75">
-      <c r="A38" s="260" t="s">
+      <c r="A38" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="261"/>
+      <c r="B38" s="230"/>
       <c r="C38" s="122">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>3.25</v>
@@ -3997,28 +3999,28 @@
       <c r="M38" s="96"/>
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="233" t="s">
+      <c r="A39" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="264"/>
-      <c r="C39" s="268" t="s">
+      <c r="B39" s="232"/>
+      <c r="C39" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="269"/>
+      <c r="D39" s="228"/>
       <c r="E39" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="268" t="s">
+      <c r="F39" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="269"/>
+      <c r="G39" s="228"/>
       <c r="H39" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="I39" s="268" t="s">
+      <c r="I39" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="269"/>
+      <c r="J39" s="228"/>
       <c r="K39" s="60" t="s">
         <v>58</v>
       </c>
@@ -4402,10 +4404,10 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A51" s="260" t="s">
+      <c r="A51" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="261"/>
+      <c r="B51" s="230"/>
       <c r="C51" s="132">
         <f>SUMPRODUCT(C40:C50,D40:D50)</f>
         <v>13.25</v>
@@ -4437,26 +4439,26 @@
       <c r="M51" s="96"/>
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A52" s="233" t="s">
+      <c r="A52" s="231" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="234"/>
-      <c r="C52" s="268" t="s">
+      <c r="B52" s="233"/>
+      <c r="C52" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="269"/>
+      <c r="D52" s="228"/>
       <c r="E52" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="268" t="s">
+      <c r="F52" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="269"/>
+      <c r="G52" s="228"/>
       <c r="H52" s="60"/>
-      <c r="I52" s="268" t="s">
+      <c r="I52" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="269"/>
+      <c r="J52" s="228"/>
       <c r="K52" s="60"/>
       <c r="L52" s="15"/>
       <c r="M52" s="5"/>
@@ -4629,10 +4631,10 @@
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A58" s="260" t="s">
+      <c r="A58" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="261"/>
+      <c r="B58" s="230"/>
       <c r="C58" s="98">
         <f>SUMPRODUCT(C53:C57,D53:D57)</f>
         <v>6</v>
@@ -4664,27 +4666,27 @@
       <c r="M58" s="96"/>
     </row>
     <row r="59" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="226" t="s">
+      <c r="A59" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="227"/>
-      <c r="C59" s="227"/>
-      <c r="D59" s="227"/>
-      <c r="E59" s="227"/>
-      <c r="F59" s="227"/>
-      <c r="G59" s="227"/>
-      <c r="H59" s="227"/>
-      <c r="I59" s="227"/>
-      <c r="J59" s="227"/>
-      <c r="K59" s="228"/>
+      <c r="B59" s="256"/>
+      <c r="C59" s="256"/>
+      <c r="D59" s="256"/>
+      <c r="E59" s="256"/>
+      <c r="F59" s="256"/>
+      <c r="G59" s="256"/>
+      <c r="H59" s="256"/>
+      <c r="I59" s="256"/>
+      <c r="J59" s="256"/>
+      <c r="K59" s="257"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="229" t="s">
+      <c r="A60" s="258" t="s">
         <v>136</v>
       </c>
-      <c r="B60" s="230"/>
+      <c r="B60" s="259"/>
       <c r="C60" s="133">
         <f t="shared" ref="C60:J60" si="0">C14+C21+C26+C32+C38+C51+C58</f>
         <v>47.5</v>
@@ -4716,33 +4718,67 @@
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="231" t="s">
+      <c r="A61" s="260" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="232"/>
-      <c r="C61" s="235">
+      <c r="B61" s="261"/>
+      <c r="C61" s="262">
         <f>C60/D60</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="D61" s="236"/>
-      <c r="E61" s="237"/>
-      <c r="F61" s="238">
+      <c r="D61" s="263"/>
+      <c r="E61" s="264"/>
+      <c r="F61" s="265">
         <f>F60/G60</f>
         <v>0.62250000000000005</v>
       </c>
-      <c r="G61" s="239"/>
-      <c r="H61" s="240"/>
-      <c r="I61" s="241">
+      <c r="G61" s="266"/>
+      <c r="H61" s="267"/>
+      <c r="I61" s="268">
         <f>I60/J60</f>
         <v>0.79500000000000004</v>
       </c>
-      <c r="J61" s="242"/>
-      <c r="K61" s="243"/>
+      <c r="J61" s="269"/>
+      <c r="K61" s="270"/>
       <c r="L61" s="136"/>
       <c r="M61" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="I22:J22"/>
@@ -4757,40 +4793,6 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14 L21 L26 L32 L38 L51" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -4812,7 +4814,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -4827,15 +4829,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="271" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="139"/>
@@ -4859,26 +4861,26 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="24" thickBot="1">
-      <c r="A6" s="278" t="s">
+      <c r="A6" s="279" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="279"/>
-      <c r="C6" s="279"/>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="280"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="280"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="280"/>
+      <c r="F6" s="280"/>
+      <c r="G6" s="281"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="281"/>
-      <c r="C7" s="281"/>
-      <c r="D7" s="281"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="282"/>
+      <c r="B7" s="282"/>
+      <c r="C7" s="282"/>
+      <c r="D7" s="282"/>
+      <c r="E7" s="282"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="283"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="209" t="s">
@@ -5155,8 +5157,8 @@
       <c r="A20" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="283"/>
-      <c r="C20" s="283"/>
+      <c r="B20" s="284"/>
+      <c r="C20" s="284"/>
       <c r="D20" s="222">
         <f>SUM(D9:D19)</f>
         <v>100</v>
@@ -5199,26 +5201,26 @@
       <c r="G22" s="153"/>
     </row>
     <row r="23" spans="1:7" ht="24" thickBot="1">
-      <c r="A23" s="284" t="s">
+      <c r="A23" s="285" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="285"/>
-      <c r="C23" s="285"/>
-      <c r="D23" s="285"/>
-      <c r="E23" s="285"/>
-      <c r="F23" s="285"/>
-      <c r="G23" s="286"/>
+      <c r="B23" s="286"/>
+      <c r="C23" s="286"/>
+      <c r="D23" s="286"/>
+      <c r="E23" s="286"/>
+      <c r="F23" s="286"/>
+      <c r="G23" s="287"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="160" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="271"/>
-      <c r="C24" s="271"/>
-      <c r="D24" s="271"/>
-      <c r="E24" s="271"/>
-      <c r="F24" s="271"/>
-      <c r="G24" s="272"/>
+      <c r="B24" s="272"/>
+      <c r="C24" s="272"/>
+      <c r="D24" s="272"/>
+      <c r="E24" s="272"/>
+      <c r="F24" s="272"/>
+      <c r="G24" s="273"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="208" t="s">
@@ -5540,26 +5542,26 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="24" thickBot="1">
-      <c r="A40" s="273" t="s">
+      <c r="A40" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="274"/>
-      <c r="C40" s="274"/>
-      <c r="D40" s="274"/>
-      <c r="E40" s="274"/>
-      <c r="F40" s="274"/>
-      <c r="G40" s="275"/>
+      <c r="B40" s="275"/>
+      <c r="C40" s="275"/>
+      <c r="D40" s="275"/>
+      <c r="E40" s="275"/>
+      <c r="F40" s="275"/>
+      <c r="G40" s="276"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="159" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="276"/>
-      <c r="C41" s="276"/>
-      <c r="D41" s="276"/>
-      <c r="E41" s="276"/>
-      <c r="F41" s="276"/>
-      <c r="G41" s="277"/>
+      <c r="B41" s="277"/>
+      <c r="C41" s="277"/>
+      <c r="D41" s="277"/>
+      <c r="E41" s="277"/>
+      <c r="F41" s="277"/>
+      <c r="G41" s="278"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="178" t="s">
@@ -5716,7 +5718,7 @@
       <c r="F48" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="287" t="s">
+      <c r="G48" s="226" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5898,9 +5900,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6036,16 +6041,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6053,5 +6055,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>